--- a/data/vintage_data/data_20080508.xlsx
+++ b/data/vintage_data/data_20080508.xlsx
@@ -15537,9 +15537,7 @@
       <c r="V101" t="n">
         <v>-4.797417675987115</v>
       </c>
-      <c r="W101" t="n">
-        <v>5.1516</v>
-      </c>
+      <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
     </row>
   </sheetData>
@@ -23144,16 +23142,16 @@
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
+      <c r="P101" t="n">
+        <v>-45.50767591222578</v>
+      </c>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="inlineStr"/>
       <c r="V101" t="inlineStr"/>
-      <c r="W101" t="n">
-        <v>5</v>
-      </c>
+      <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
     </row>
   </sheetData>
@@ -30766,7 +30764,9 @@
       <c r="O101" t="n">
         <v>936.6953266634537</v>
       </c>
-      <c r="P101" t="inlineStr"/>
+      <c r="P101" t="n">
+        <v>-45.50767591222578</v>
+      </c>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
@@ -30777,9 +30777,7 @@
       <c r="V101" t="n">
         <v>-4.797417675987115</v>
       </c>
-      <c r="W101" t="n">
-        <v>5</v>
-      </c>
+      <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
     </row>
   </sheetData>

--- a/data/vintage_data/data_20080508.xlsx
+++ b/data/vintage_data/data_20080508.xlsx
@@ -361,7 +361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X100"/>
+  <dimension ref="A1:Z100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,10 +477,20 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>mortffr_obs</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>mortgage_nom_obs</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>unr_obs</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>wage_rgd_obs</t>
         </is>
@@ -554,9 +564,15 @@
         <v>9.962984094884133</v>
       </c>
       <c r="W2" t="n">
+        <v>0.8087952898550723</v>
+      </c>
+      <c r="X2" t="n">
+        <v>3.15363328292241</v>
+      </c>
+      <c r="Y2" t="n">
         <v>9.366666666666665</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>-0.4759009658764708</v>
       </c>
     </row>
@@ -628,9 +644,15 @@
         <v>5.04308536268919</v>
       </c>
       <c r="W3" t="n">
+        <v>0.773306159420291</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2.609384290780788</v>
+      </c>
+      <c r="Y3" t="n">
         <v>8.533333333333333</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>0.3624400212747939</v>
       </c>
     </row>
@@ -702,9 +724,15 @@
         <v>3.339400681539008</v>
       </c>
       <c r="W4" t="n">
+        <v>0.6303571428571426</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2.447779857357557</v>
+      </c>
+      <c r="Y4" t="n">
         <v>7.866666666666667</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>0.0187856805383563</v>
       </c>
     </row>
@@ -776,9 +804,15 @@
         <v>2.681724951117663</v>
       </c>
       <c r="W5" t="n">
+        <v>0.3996520146520153</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2.884840292812955</v>
+      </c>
+      <c r="Y5" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>0.08341637990603153</v>
       </c>
     </row>
@@ -850,9 +884,15 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
+        <v>0.3219293478260878</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2.825415705076066</v>
+      </c>
+      <c r="Y6" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>0.5550377060815963</v>
       </c>
     </row>
@@ -924,9 +964,15 @@
         <v>0.8781615160384618</v>
       </c>
       <c r="W7" t="n">
+        <v>0.9002083333333348</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2.585374281902362</v>
+      </c>
+      <c r="Y7" t="n">
         <v>7.300000000000001</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>0.1708529278791655</v>
       </c>
     </row>
@@ -998,9 +1044,15 @@
         <v>0.163800200423837</v>
       </c>
       <c r="W8" t="n">
+        <v>0.970388888888889</v>
+      </c>
+      <c r="X8" t="n">
+        <v>4.838279261661252</v>
+      </c>
+      <c r="Y8" t="n">
         <v>7.233333333333333</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>0.0936451387024257</v>
       </c>
     </row>
@@ -1072,9 +1124,15 @@
         <v>0.9772064733792302</v>
       </c>
       <c r="W9" t="n">
+        <v>1.014734432234433</v>
+      </c>
+      <c r="X9" t="n">
+        <v>2.887889102968135</v>
+      </c>
+      <c r="Y9" t="n">
         <v>7.3</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>0.2652226031985177</v>
       </c>
     </row>
@@ -1146,9 +1204,15 @@
         <v>1.979203413194857</v>
       </c>
       <c r="W10" t="n">
+        <v>0.8547554347826087</v>
+      </c>
+      <c r="X10" t="n">
+        <v>4.283328736272085</v>
+      </c>
+      <c r="Y10" t="n">
         <v>7.2</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>0.9137733930902497</v>
       </c>
     </row>
@@ -1220,9 +1284,15 @@
         <v>3.487212571402014</v>
       </c>
       <c r="W11" t="n">
+        <v>0.7705525362318832</v>
+      </c>
+      <c r="X11" t="n">
+        <v>3.377405381157359</v>
+      </c>
+      <c r="Y11" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>1.131977420649275</v>
       </c>
     </row>
@@ -1294,9 +1364,15 @@
         <v>5.377104065178582</v>
       </c>
       <c r="W12" t="n">
+        <v>0.7299444444444461</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1.821793037383781</v>
+      </c>
+      <c r="Y12" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
         <v>0.8327718915132062</v>
       </c>
     </row>
@@ -1368,9 +1444,15 @@
         <v>6.338662189231478</v>
       </c>
       <c r="W13" t="n">
+        <v>0.8312179487179467</v>
+      </c>
+      <c r="X13" t="n">
+        <v>3.266066946893799</v>
+      </c>
+      <c r="Y13" t="n">
         <v>7.166666666666667</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Z13" t="n">
         <v>0.3604664869711737</v>
       </c>
     </row>
@@ -1442,9 +1524,15 @@
         <v>2.825933731440306</v>
       </c>
       <c r="W14" t="n">
+        <v>0.9993025362318846</v>
+      </c>
+      <c r="X14" t="n">
+        <v>3.995249609571855</v>
+      </c>
+      <c r="Y14" t="n">
         <v>6.966666666666666</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
         <v>0.3346420717301988</v>
       </c>
     </row>
@@ -1516,9 +1604,15 @@
         <v>0.9683174251825857</v>
       </c>
       <c r="W15" t="n">
+        <v>0.8933152173913048</v>
+      </c>
+      <c r="X15" t="n">
+        <v>3.767756284239854</v>
+      </c>
+      <c r="Y15" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Z15" t="n">
         <v>0.9439049497590892</v>
       </c>
     </row>
@@ -1590,9 +1684,15 @@
         <v>0.7853443505570304</v>
       </c>
       <c r="W16" t="n">
+        <v>0.7668611111111105</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1.947735118636464</v>
+      </c>
+      <c r="Y16" t="n">
         <v>6.599999999999999</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Z16" t="n">
         <v>-0.6129512377825054</v>
       </c>
     </row>
@@ -1664,9 +1764,15 @@
         <v>1.209517984897514</v>
       </c>
       <c r="W17" t="n">
+        <v>0.6541666666666672</v>
+      </c>
+      <c r="X17" t="n">
+        <v>4.147767327829527</v>
+      </c>
+      <c r="Y17" t="n">
         <v>6.266666666666667</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Z17" t="n">
         <v>0.4206078914575486</v>
       </c>
     </row>
@@ -1738,9 +1844,15 @@
         <v>0.5566274273321643</v>
       </c>
       <c r="W18" t="n">
+        <v>0.6326086956521739</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2.826774900665543</v>
+      </c>
+      <c r="Y18" t="n">
         <v>6</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Z18" t="n">
         <v>0.2696876592827458</v>
       </c>
     </row>
@@ -1812,9 +1924,15 @@
         <v>1.399217231107909</v>
       </c>
       <c r="W19" t="n">
+        <v>0.5842481884057971</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1.41489184132428</v>
+      </c>
+      <c r="Y19" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Z19" t="n">
         <v>0.557371050331582</v>
       </c>
     </row>
@@ -1886,9 +2004,15 @@
         <v>-1.31385657718383</v>
       </c>
       <c r="W20" t="n">
+        <v>0.6285164835164825</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2.538290967561651</v>
+      </c>
+      <c r="Y20" t="n">
         <v>5.7</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Z20" t="n">
         <v>0.7435998434387213</v>
       </c>
     </row>
@@ -1960,9 +2084,15 @@
         <v>1.692087748833718</v>
       </c>
       <c r="W21" t="n">
+        <v>0.5179304029304042</v>
+      </c>
+      <c r="X21" t="n">
+        <v>3.489634163901059</v>
+      </c>
+      <c r="Y21" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Z21" t="n">
         <v>0.1473501260968532</v>
       </c>
     </row>
@@ -2034,9 +2164,15 @@
         <v>0.6688988150796489</v>
       </c>
       <c r="W22" t="n">
+        <v>0.3266304347826092</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.91823679065083</v>
+      </c>
+      <c r="Y22" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Z22" t="n">
         <v>-0.03367691419229579</v>
       </c>
     </row>
@@ -2108,9 +2244,15 @@
         <v>1.816730395544893</v>
       </c>
       <c r="W23" t="n">
+        <v>0.2487137681159424</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.726497326586302</v>
+      </c>
+      <c r="Y23" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Z23" t="n">
         <v>-0.1885353706679958</v>
       </c>
     </row>
@@ -2182,9 +2324,15 @@
         <v>0.08179959556317626</v>
       </c>
       <c r="W24" t="n">
+        <v>0.08588888888888979</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.643544561454601</v>
+      </c>
+      <c r="Y24" t="n">
         <v>5.2</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Z24" t="n">
         <v>-0.7141146922364958</v>
       </c>
     </row>
@@ -2256,9 +2404,15 @@
         <v>-1.815231360718883</v>
       </c>
       <c r="W25" t="n">
+        <v>0.1560714285714275</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2.721931283633474</v>
+      </c>
+      <c r="Y25" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Z25" t="n">
         <v>-0.7057968438876389</v>
       </c>
     </row>
@@ -2330,9 +2484,15 @@
         <v>-0.7521974454688446</v>
       </c>
       <c r="W26" t="n">
+        <v>0.2882699275362324</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2.947527669609471</v>
+      </c>
+      <c r="Y26" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Z26" t="n">
         <v>0.08528008334099503</v>
       </c>
     </row>
@@ -2404,9 +2564,15 @@
         <v>-1.521584723725332</v>
       </c>
       <c r="W27" t="n">
+        <v>0.3705525362318833</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2.213323210101831</v>
+      </c>
+      <c r="Y27" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Z27" t="n">
         <v>0.6407714198461927</v>
       </c>
     </row>
@@ -2478,9 +2644,15 @@
         <v>1.856593412253519</v>
       </c>
       <c r="W28" t="n">
+        <v>0.4446666666666679</v>
+      </c>
+      <c r="X28" t="n">
+        <v>3.257750385284998</v>
+      </c>
+      <c r="Y28" t="n">
         <v>5.3</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Z28" t="n">
         <v>0.6923077894278937</v>
       </c>
     </row>
@@ -2552,9 +2724,15 @@
         <v>-3.531530571602695</v>
       </c>
       <c r="W29" t="n">
+        <v>0.4802481684981683</v>
+      </c>
+      <c r="X29" t="n">
+        <v>2.560864642558711</v>
+      </c>
+      <c r="Y29" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Z29" t="n">
         <v>0.9561899198492235</v>
       </c>
     </row>
@@ -2626,9 +2804,15 @@
         <v>-5.382664581262346</v>
       </c>
       <c r="W30" t="n">
+        <v>0.4706123188405811</v>
+      </c>
+      <c r="X30" t="n">
+        <v>2.122346525019553</v>
+      </c>
+      <c r="Y30" t="n">
         <v>5.7</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Z30" t="n">
         <v>0.6269900166253765</v>
       </c>
     </row>
@@ -2700,9 +2884,15 @@
         <v>-5.543927728245711</v>
       </c>
       <c r="W31" t="n">
+        <v>0.5443242753623196</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1.724470643360993</v>
+      </c>
+      <c r="Y31" t="n">
         <v>6.133333333333334</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Z31" t="n">
         <v>0.08200849935616793</v>
       </c>
     </row>
@@ -2774,9 +2964,15 @@
         <v>-5.869411928637701</v>
       </c>
       <c r="W32" t="n">
+        <v>0.8115555555555565</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1.59167876108484</v>
+      </c>
+      <c r="Y32" t="n">
         <v>6.600000000000001</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Z32" t="n">
         <v>-0.3433735223151068</v>
       </c>
     </row>
@@ -2848,9 +3044,15 @@
         <v>2.778658182330028</v>
       </c>
       <c r="W33" t="n">
+        <v>0.9039835164835168</v>
+      </c>
+      <c r="X33" t="n">
+        <v>2.382521088255797</v>
+      </c>
+      <c r="Y33" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Z33" t="n">
         <v>1.202893412487421</v>
       </c>
     </row>
@@ -2922,9 +3124,15 @@
         <v>4.67238269063617</v>
       </c>
       <c r="W34" t="n">
+        <v>0.9203623188405803</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.9190509855307156</v>
+      </c>
+      <c r="Y34" t="n">
         <v>6.866666666666667</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Z34" t="n">
         <v>0.3906350604859103</v>
       </c>
     </row>
@@ -2996,9 +3204,15 @@
         <v>1.837507530499412</v>
       </c>
       <c r="W35" t="n">
+        <v>0.9803804347826088</v>
+      </c>
+      <c r="X35" t="n">
+        <v>2.022589372440903</v>
+      </c>
+      <c r="Y35" t="n">
         <v>7.100000000000001</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Z35" t="n">
         <v>0.5721631092897534</v>
       </c>
     </row>
@@ -3070,9 +3284,15 @@
         <v>4.652001563489291</v>
       </c>
       <c r="W36" t="n">
+        <v>1.093928571428571</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1.503099379549398</v>
+      </c>
+      <c r="Y36" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Z36" t="n">
         <v>1.228339555379489</v>
       </c>
     </row>
@@ -3144,9 +3364,15 @@
         <v>4.658078189748251</v>
       </c>
       <c r="W37" t="n">
+        <v>1.173150183150183</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.211165913037192</v>
+      </c>
+      <c r="Y37" t="n">
         <v>7.600000000000001</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Z37" t="n">
         <v>0.2624515558078852</v>
       </c>
     </row>
@@ -3218,9 +3444,15 @@
         <v>0.931420789569421</v>
       </c>
       <c r="W38" t="n">
+        <v>1.159356884057971</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1.974645713851098</v>
+      </c>
+      <c r="Y38" t="n">
         <v>7.633333333333333</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Z38" t="n">
         <v>1.054626980296685</v>
       </c>
     </row>
@@ -3292,9 +3524,15 @@
         <v>4.65200156348927</v>
       </c>
       <c r="W39" t="n">
+        <v>1.183777173913043</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1.59825088905419</v>
+      </c>
+      <c r="Y39" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Z39" t="n">
         <v>-0.1371025309882777</v>
       </c>
     </row>
@@ -3366,9 +3604,15 @@
         <v>1.596203083978002</v>
       </c>
       <c r="W40" t="n">
+        <v>1.13275</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.4850840317691807</v>
+      </c>
+      <c r="Y40" t="n">
         <v>7.133333333333333</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Z40" t="n">
         <v>-0.6124616996794719</v>
       </c>
     </row>
@@ -3440,9 +3684,15 @@
         <v>2.076470297090824</v>
       </c>
       <c r="W41" t="n">
+        <v>1.06985347985348</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.861439197710495</v>
+      </c>
+      <c r="Y41" t="n">
         <v>7.066666666666666</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Z41" t="n">
         <v>-0.176749109855844</v>
       </c>
     </row>
@@ -3514,9 +3764,15 @@
         <v>4.325408693025432</v>
       </c>
       <c r="W42" t="n">
+        <v>0.9964039855072462</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1.710166196199506</v>
+      </c>
+      <c r="Y42" t="n">
         <v>6.8</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Z42" t="n">
         <v>-0.02716379543587344</v>
       </c>
     </row>
@@ -3588,9 +3844,15 @@
         <v>5.350028904258899</v>
       </c>
       <c r="W43" t="n">
+        <v>0.9521014492753619</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1.380735594952812</v>
+      </c>
+      <c r="Y43" t="n">
         <v>6.633333333333333</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Z43" t="n">
         <v>-0.1209793860945706</v>
       </c>
     </row>
@@ -3664,9 +3926,15 @@
         <v>3.118755885670458</v>
       </c>
       <c r="W44" t="n">
+        <v>0.9268333333333333</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1.004696775533694</v>
+      </c>
+      <c r="Y44" t="n">
         <v>6.566666666666666</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Z44" t="n">
         <v>0.4924393736602579</v>
       </c>
     </row>
@@ -3740,9 +4008,15 @@
         <v>3.881383827481651</v>
       </c>
       <c r="W45" t="n">
+        <v>0.8729945054945051</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1.477308904247951</v>
+      </c>
+      <c r="Y45" t="n">
         <v>6.2</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Z45" t="n">
         <v>-0.6396724750905918</v>
       </c>
     </row>
@@ -3816,9 +4090,15 @@
         <v>0.03281378208278333</v>
       </c>
       <c r="W46" t="n">
+        <v>0.8086413043478262</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1.496829968862364</v>
+      </c>
+      <c r="Y46" t="n">
         <v>6</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Z46" t="n">
         <v>-0.6618420825354925</v>
       </c>
     </row>
@@ -3892,9 +4172,15 @@
         <v>0</v>
       </c>
       <c r="W47" t="n">
+        <v>0.6613496376811594</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1.425481922786129</v>
+      </c>
+      <c r="Y47" t="n">
         <v>5.633333333333333</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Z47" t="n">
         <v>0.08668448171009542</v>
       </c>
     </row>
@@ -3968,9 +4254,15 @@
         <v>-1.022267764747582</v>
       </c>
       <c r="W48" t="n">
+        <v>0.5834722222222226</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0.8164980190834302</v>
+      </c>
+      <c r="Y48" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Z48" t="n">
         <v>0.11955294510689</v>
       </c>
     </row>
@@ -4044,9 +4336,15 @@
         <v>-2.789628045613411</v>
       </c>
       <c r="W49" t="n">
+        <v>0.4902197802197803</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1.437660580239144</v>
+      </c>
+      <c r="Y49" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Z49" t="n">
         <v>0.2013161345749452</v>
       </c>
     </row>
@@ -4120,9 +4418,15 @@
         <v>3.483272445279132</v>
       </c>
       <c r="W50" t="n">
+        <v>0.4848731884057966</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1.576129160699601</v>
+      </c>
+      <c r="Y50" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X50" t="n">
+      <c r="Z50" t="n">
         <v>0.1910193290128673</v>
       </c>
     </row>
@@ -4196,9 +4500,15 @@
         <v>2.791482780385841</v>
       </c>
       <c r="W51" t="n">
+        <v>0.4534692028985505</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0.9095470657360019</v>
+      </c>
+      <c r="Y51" t="n">
         <v>5.566666666666666</v>
       </c>
-      <c r="X51" t="n">
+      <c r="Z51" t="n">
         <v>0.4073443056279821</v>
       </c>
     </row>
@@ -4272,9 +4582,15 @@
         <v>2.9645816592752</v>
       </c>
       <c r="W52" t="n">
+        <v>0.4930860805860806</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1.356277617020229</v>
+      </c>
+      <c r="Y52" t="n">
         <v>5.533333333333334</v>
       </c>
-      <c r="X52" t="n">
+      <c r="Z52" t="n">
         <v>0.3894648829464068</v>
       </c>
     </row>
@@ -4348,9 +4664,15 @@
         <v>4.585591585422436</v>
       </c>
       <c r="W53" t="n">
+        <v>0.6498443223443229</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1.571612376995801</v>
+      </c>
+      <c r="Y53" t="n">
         <v>5.5</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Z53" t="n">
         <v>0.6140741198165393</v>
       </c>
     </row>
@@ -4424,9 +4746,15 @@
         <v>0.8276724754031047</v>
       </c>
       <c r="W54" t="n">
+        <v>0.6659510869565224</v>
+      </c>
+      <c r="X54" t="n">
+        <v>1.656144073704366</v>
+      </c>
+      <c r="Y54" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X54" t="n">
+      <c r="Z54" t="n">
         <v>0.263547839650391</v>
       </c>
     </row>
@@ -4500,9 +4828,15 @@
         <v>-0.5312881446293959</v>
       </c>
       <c r="W55" t="n">
+        <v>0.6131159420289864</v>
+      </c>
+      <c r="X55" t="n">
+        <v>1.406354671425849</v>
+      </c>
+      <c r="Y55" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X55" t="n">
+      <c r="Z55" t="n">
         <v>0.0007919174444820637</v>
       </c>
     </row>
@@ -4576,9 +4910,15 @@
         <v>0.854580123491658</v>
       </c>
       <c r="W56" t="n">
+        <v>0.6153888888888899</v>
+      </c>
+      <c r="X56" t="n">
+        <v>1.180647927875349</v>
+      </c>
+      <c r="Y56" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X56" t="n">
+      <c r="Z56" t="n">
         <v>0.07030507817540305</v>
       </c>
     </row>
@@ -4652,9 +4992,15 @@
         <v>1.745244995122621</v>
       </c>
       <c r="W57" t="n">
+        <v>0.5961172161172166</v>
+      </c>
+      <c r="X57" t="n">
+        <v>1.424337088689091</v>
+      </c>
+      <c r="Y57" t="n">
         <v>5</v>
       </c>
-      <c r="X57" t="n">
+      <c r="Z57" t="n">
         <v>0.4352116222258141</v>
       </c>
     </row>
@@ -4728,9 +5074,15 @@
         <v>1.289231436539459</v>
       </c>
       <c r="W58" t="n">
+        <v>0.5271648550724641</v>
+      </c>
+      <c r="X58" t="n">
+        <v>2.322965781594291</v>
+      </c>
+      <c r="Y58" t="n">
         <v>4.866666666666666</v>
       </c>
-      <c r="X58" t="n">
+      <c r="Z58" t="n">
         <v>0.7191211831164686</v>
       </c>
     </row>
@@ -4804,9 +5156,15 @@
         <v>1.749480286228099</v>
       </c>
       <c r="W59" t="n">
+        <v>0.4906521739130436</v>
+      </c>
+      <c r="X59" t="n">
+        <v>1.007127150844211</v>
+      </c>
+      <c r="Y59" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X59" t="n">
+      <c r="Z59" t="n">
         <v>1.378383905522504</v>
       </c>
     </row>
@@ -4880,9 +5238,15 @@
         <v>2.322470989109863</v>
       </c>
       <c r="W60" t="n">
+        <v>0.4251666666666665</v>
+      </c>
+      <c r="X60" t="n">
+        <v>1.430647922414338</v>
+      </c>
+      <c r="Y60" t="n">
         <v>4.633333333333333</v>
       </c>
-      <c r="X60" t="n">
+      <c r="Z60" t="n">
         <v>1.627979111179489</v>
       </c>
     </row>
@@ -4956,9 +5320,15 @@
         <v>3.412016675006154</v>
       </c>
       <c r="W61" t="n">
+        <v>0.4264652014652011</v>
+      </c>
+      <c r="X61" t="n">
+        <v>2.077073107508811</v>
+      </c>
+      <c r="Y61" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X61" t="n">
+      <c r="Z61" t="n">
         <v>1.16971895877371</v>
       </c>
     </row>
@@ -5032,9 +5402,15 @@
         <v>3.682033770508832</v>
       </c>
       <c r="W62" t="n">
+        <v>0.3879257246376813</v>
+      </c>
+      <c r="X62" t="n">
+        <v>1.93886886274309</v>
+      </c>
+      <c r="Y62" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X62" t="n">
+      <c r="Z62" t="n">
         <v>1.289460685542643</v>
       </c>
     </row>
@@ -5108,9 +5484,15 @@
         <v>3.305258312142185</v>
       </c>
       <c r="W63" t="n">
+        <v>0.5048641304347825</v>
+      </c>
+      <c r="X63" t="n">
+        <v>2.304719006103026</v>
+      </c>
+      <c r="Y63" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X63" t="n">
+      <c r="Z63" t="n">
         <v>0.2216216966693823</v>
       </c>
     </row>
@@ -5184,9 +5566,15 @@
         <v>1.830435486201331</v>
       </c>
       <c r="W64" t="n">
+        <v>0.5521944444444442</v>
+      </c>
+      <c r="X64" t="n">
+        <v>1.927781765140204</v>
+      </c>
+      <c r="Y64" t="n">
         <v>4.3</v>
       </c>
-      <c r="X64" t="n">
+      <c r="Z64" t="n">
         <v>1.449840218383615</v>
       </c>
     </row>
@@ -5260,9 +5648,15 @@
         <v>1.963664628876818</v>
       </c>
       <c r="W65" t="n">
+        <v>0.586410256410256</v>
+      </c>
+      <c r="X65" t="n">
+        <v>2.323456692645795</v>
+      </c>
+      <c r="Y65" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="X65" t="n">
+      <c r="Z65" t="n">
         <v>-0.03765634714971744</v>
       </c>
     </row>
@@ -5336,9 +5730,15 @@
         <v>1.436163589579108</v>
       </c>
       <c r="W66" t="n">
+        <v>0.6052807971014489</v>
+      </c>
+      <c r="X66" t="n">
+        <v>2.774187356268646</v>
+      </c>
+      <c r="Y66" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X66" t="n">
+      <c r="Z66" t="n">
         <v>0.5350136180958796</v>
       </c>
     </row>
@@ -5412,9 +5812,15 @@
         <v>2.013257863135171</v>
       </c>
       <c r="W67" t="n">
+        <v>0.5689945652173918</v>
+      </c>
+      <c r="X67" t="n">
+        <v>1.864078036767872</v>
+      </c>
+      <c r="Y67" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="X67" t="n">
+      <c r="Z67" t="n">
         <v>1.554162740819812</v>
       </c>
     </row>
@@ -5488,9 +5894,15 @@
         <v>2.712030621919382</v>
       </c>
       <c r="W68" t="n">
+        <v>0.5647435897435895</v>
+      </c>
+      <c r="X68" t="n">
+        <v>1.393692804223548</v>
+      </c>
+      <c r="Y68" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="X68" t="n">
+      <c r="Z68" t="n">
         <v>2.643571474736089</v>
       </c>
     </row>
@@ -5564,9 +5976,15 @@
         <v>0.06686727096358838</v>
       </c>
       <c r="W69" t="n">
+        <v>0.4561721611721612</v>
+      </c>
+      <c r="X69" t="n">
+        <v>2.458237156983756</v>
+      </c>
+      <c r="Y69" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="X69" t="n">
+      <c r="Z69" t="n">
         <v>-0.2252730410481293</v>
       </c>
     </row>
@@ -5640,9 +6058,15 @@
         <v>-1.278187600304275</v>
       </c>
       <c r="W70" t="n">
+        <v>0.3718025362318842</v>
+      </c>
+      <c r="X70" t="n">
+        <v>2.444978016499623</v>
+      </c>
+      <c r="Y70" t="n">
         <v>4</v>
       </c>
-      <c r="X70" t="n">
+      <c r="Z70" t="n">
         <v>1.498950395177451</v>
       </c>
     </row>
@@ -5716,9 +6140,15 @@
         <v>0.9210443635445466</v>
       </c>
       <c r="W71" t="n">
+        <v>0.319610507246376</v>
+      </c>
+      <c r="X71" t="n">
+        <v>2.000984498798462</v>
+      </c>
+      <c r="Y71" t="n">
         <v>3.9</v>
       </c>
-      <c r="X71" t="n">
+      <c r="Z71" t="n">
         <v>0.1252227237608183</v>
       </c>
     </row>
@@ -5792,9 +6222,15 @@
         <v>1.860930973213774</v>
       </c>
       <c r="W72" t="n">
+        <v>0.3999166666666676</v>
+      </c>
+      <c r="X72" t="n">
+        <v>1.755115980828378</v>
+      </c>
+      <c r="Y72" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X72" t="n">
+      <c r="Z72" t="n">
         <v>0.8302048569634537</v>
       </c>
     </row>
@@ -5868,9 +6304,15 @@
         <v>2.599799802488617</v>
       </c>
       <c r="W73" t="n">
+        <v>0.7041575091575094</v>
+      </c>
+      <c r="X73" t="n">
+        <v>3.226908585445039</v>
+      </c>
+      <c r="Y73" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X73" t="n">
+      <c r="Z73" t="n">
         <v>-0.1828974110579861</v>
       </c>
     </row>
@@ -5944,9 +6386,15 @@
         <v>2.116033248047892</v>
       </c>
       <c r="W74" t="n">
+        <v>0.8896195652173914</v>
+      </c>
+      <c r="X74" t="n">
+        <v>2.956962076923184</v>
+      </c>
+      <c r="Y74" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X74" t="n">
+      <c r="Z74" t="n">
         <v>0.1532205057472692</v>
       </c>
     </row>
@@ -6020,9 +6468,15 @@
         <v>-0.2725654271577613</v>
       </c>
       <c r="W75" t="n">
+        <v>1.144057971014493</v>
+      </c>
+      <c r="X75" t="n">
+        <v>2.106507940897485</v>
+      </c>
+      <c r="Y75" t="n">
         <v>5.5</v>
       </c>
-      <c r="X75" t="n">
+      <c r="Z75" t="n">
         <v>0.3076405365812666</v>
       </c>
     </row>
@@ -6096,9 +6550,15 @@
         <v>2.262680858887241</v>
       </c>
       <c r="W76" t="n">
+        <v>1.280111111111111</v>
+      </c>
+      <c r="X76" t="n">
+        <v>2.556290508934249</v>
+      </c>
+      <c r="Y76" t="n">
         <v>5.7</v>
       </c>
-      <c r="X76" t="n">
+      <c r="Z76" t="n">
         <v>1.153584418529487</v>
       </c>
     </row>
@@ -6172,9 +6632,15 @@
         <v>2.793138468917747</v>
       </c>
       <c r="W77" t="n">
+        <v>1.260448717948718</v>
+      </c>
+      <c r="X77" t="n">
+        <v>3.193849598429004</v>
+      </c>
+      <c r="Y77" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X77" t="n">
+      <c r="Z77" t="n">
         <v>0.6721419935359457</v>
       </c>
     </row>
@@ -6248,9 +6714,15 @@
         <v>0.8744093869229062</v>
       </c>
       <c r="W78" t="n">
+        <v>1.163115942028986</v>
+      </c>
+      <c r="X78" t="n">
+        <v>3.382704536301659</v>
+      </c>
+      <c r="Y78" t="n">
         <v>5.733333333333333</v>
       </c>
-      <c r="X78" t="n">
+      <c r="Z78" t="n">
         <v>0.1220987828536571</v>
       </c>
     </row>
@@ -6324,9 +6796,15 @@
         <v>3.250894546241287</v>
       </c>
       <c r="W79" t="n">
+        <v>1.164773550724638</v>
+      </c>
+      <c r="X79" t="n">
+        <v>3.335926404035621</v>
+      </c>
+      <c r="Y79" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X79" t="n">
+      <c r="Z79" t="n">
         <v>-0.573988567694194</v>
       </c>
     </row>
@@ -6400,9 +6878,15 @@
         <v>3.241286192667455</v>
       </c>
       <c r="W80" t="n">
+        <v>1.16175</v>
+      </c>
+      <c r="X80" t="n">
+        <v>2.883834431706596</v>
+      </c>
+      <c r="Y80" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X80" t="n">
+      <c r="Z80" t="n">
         <v>0.6024531868168667</v>
       </c>
     </row>
@@ -6476,9 +6960,15 @@
         <v>2.544759744742195</v>
       </c>
       <c r="W81" t="n">
+        <v>1.08915750915751</v>
+      </c>
+      <c r="X81" t="n">
+        <v>4.092584021883129</v>
+      </c>
+      <c r="Y81" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X81" t="n">
+      <c r="Z81" t="n">
         <v>1.283160434102258</v>
       </c>
     </row>
@@ -6552,9 +7042,15 @@
         <v>5.657577446718212</v>
       </c>
       <c r="W82" t="n">
+        <v>1.165788043478261</v>
+      </c>
+      <c r="X82" t="n">
+        <v>3.700284309245446</v>
+      </c>
+      <c r="Y82" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X82" t="n">
+      <c r="Z82" t="n">
         <v>0.8035425434530054</v>
       </c>
     </row>
@@ -6628,9 +7124,15 @@
         <v>4.378309979712185</v>
       </c>
       <c r="W83" t="n">
+        <v>1.208315217391304</v>
+      </c>
+      <c r="X83" t="n">
+        <v>3.053349690820164</v>
+      </c>
+      <c r="Y83" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X83" t="n">
+      <c r="Z83" t="n">
         <v>0.3021226481335962</v>
       </c>
     </row>
@@ -6704,9 +7206,15 @@
         <v>3.312732572661011</v>
       </c>
       <c r="W84" t="n">
+        <v>1.154532967032967</v>
+      </c>
+      <c r="X84" t="n">
+        <v>2.442215663267359</v>
+      </c>
+      <c r="Y84" t="n">
         <v>5.7</v>
       </c>
-      <c r="X84" t="n">
+      <c r="Z84" t="n">
         <v>-0.9344074427186128</v>
       </c>
     </row>
@@ -6780,9 +7288,15 @@
         <v>5.971235738267619</v>
       </c>
       <c r="W85" t="n">
+        <v>1.178003663003663</v>
+      </c>
+      <c r="X85" t="n">
+        <v>3.778850455339486</v>
+      </c>
+      <c r="Y85" t="n">
         <v>5.599999999999999</v>
       </c>
-      <c r="X85" t="n">
+      <c r="Z85" t="n">
         <v>0.2964375750173121</v>
       </c>
     </row>
@@ -6856,9 +7370,15 @@
         <v>3.066779845347599</v>
       </c>
       <c r="W86" t="n">
+        <v>1.098976449275362</v>
+      </c>
+      <c r="X86" t="n">
+        <v>3.243024438646115</v>
+      </c>
+      <c r="Y86" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X86" t="n">
+      <c r="Z86" t="n">
         <v>0.764010936566182</v>
       </c>
     </row>
@@ -6932,9 +7452,15 @@
         <v>2.087877930737528</v>
       </c>
       <c r="W87" t="n">
+        <v>0.9550271739130435</v>
+      </c>
+      <c r="X87" t="n">
+        <v>3.328424582974502</v>
+      </c>
+      <c r="Y87" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X87" t="n">
+      <c r="Z87" t="n">
         <v>0.499586314917211</v>
       </c>
     </row>
@@ -7008,9 +7534,15 @@
         <v>2.887431223545009</v>
       </c>
       <c r="W88" t="n">
+        <v>0.8302499999999997</v>
+      </c>
+      <c r="X88" t="n">
+        <v>2.703413482439003</v>
+      </c>
+      <c r="Y88" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X88" t="n">
+      <c r="Z88" t="n">
         <v>-0.1188313760429649</v>
       </c>
     </row>
@@ -7084,9 +7616,15 @@
         <v>3.975997057717344</v>
       </c>
       <c r="W89" t="n">
+        <v>0.7203937728937729</v>
+      </c>
+      <c r="X89" t="n">
+        <v>3.43869398959077</v>
+      </c>
+      <c r="Y89" t="n">
         <v>5.066666666666666</v>
       </c>
-      <c r="X89" t="n">
+      <c r="Z89" t="n">
         <v>-0.27025499768329</v>
       </c>
     </row>
@@ -7160,9 +7698,15 @@
         <v>3.747602244410744</v>
       </c>
       <c r="W90" t="n">
+        <v>0.5941666666666664</v>
+      </c>
+      <c r="X90" t="n">
+        <v>3.391335399011536</v>
+      </c>
+      <c r="Y90" t="n">
         <v>5</v>
       </c>
-      <c r="X90" t="n">
+      <c r="Z90" t="n">
         <v>0.5690785392900894</v>
       </c>
     </row>
@@ -7236,9 +7780,15 @@
         <v>2.177967376498581</v>
       </c>
       <c r="W91" t="n">
+        <v>0.557934782608696</v>
+      </c>
+      <c r="X91" t="n">
+        <v>2.918458922592683</v>
+      </c>
+      <c r="Y91" t="n">
         <v>4.933333333333334</v>
       </c>
-      <c r="X91" t="n">
+      <c r="Z91" t="n">
         <v>-0.1818474865033131</v>
       </c>
     </row>
@@ -7312,9 +7862,15 @@
         <v>0.7938518495003513</v>
       </c>
       <c r="W92" t="n">
+        <v>0.4848055555555564</v>
+      </c>
+      <c r="X92" t="n">
+        <v>3.299154487576608</v>
+      </c>
+      <c r="Y92" t="n">
         <v>4.7</v>
       </c>
-      <c r="X92" t="n">
+      <c r="Z92" t="n">
         <v>0.8172831116543728</v>
       </c>
     </row>
@@ -7388,9 +7944,15 @@
         <v>-2.654136768086178</v>
       </c>
       <c r="W93" t="n">
+        <v>0.4356043956043951</v>
+      </c>
+      <c r="X93" t="n">
+        <v>3.270203388442527</v>
+      </c>
+      <c r="Y93" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X93" t="n">
+      <c r="Z93" t="n">
         <v>-0.8579090165815045</v>
       </c>
     </row>
@@ -7464,9 +8026,15 @@
         <v>-5.489222528343467</v>
       </c>
       <c r="W94" t="n">
+        <v>0.3803351449275361</v>
+      </c>
+      <c r="X94" t="n">
+        <v>2.452670051098675</v>
+      </c>
+      <c r="Y94" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="X94" t="n">
+      <c r="Z94" t="n">
         <v>-0.221713758450432</v>
       </c>
     </row>
@@ -7540,9 +8108,15 @@
         <v>-4.21576043631306</v>
       </c>
       <c r="W95" t="n">
+        <v>0.3200996376811596</v>
+      </c>
+      <c r="X95" t="n">
+        <v>1.561745592277124</v>
+      </c>
+      <c r="Y95" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X95" t="n">
+      <c r="Z95" t="n">
         <v>2.476441511320538</v>
       </c>
     </row>
@@ -7616,9 +8190,15 @@
         <v>-3.964020557361168</v>
       </c>
       <c r="W96" t="n">
+        <v>0.2855277777777772</v>
+      </c>
+      <c r="X96" t="n">
+        <v>1.985720555225968</v>
+      </c>
+      <c r="Y96" t="n">
         <v>4.5</v>
       </c>
-      <c r="X96" t="n">
+      <c r="Z96" t="n">
         <v>0.5129902326024814</v>
       </c>
     </row>
@@ -7692,9 +8272,15 @@
         <v>-3.357558599948794</v>
       </c>
       <c r="W97" t="n">
+        <v>0.2968956043956039</v>
+      </c>
+      <c r="X97" t="n">
+        <v>2.009313040563272</v>
+      </c>
+      <c r="Y97" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X97" t="n">
+      <c r="Z97" t="n">
         <v>-0.3279870240885046</v>
       </c>
     </row>
@@ -7768,9 +8354,15 @@
         <v>-5.806134843854087</v>
       </c>
       <c r="W98" t="n">
+        <v>0.4147463768115944</v>
+      </c>
+      <c r="X98" t="n">
+        <v>1.466721578856795</v>
+      </c>
+      <c r="Y98" t="n">
         <v>4.7</v>
       </c>
-      <c r="X98" t="n">
+      <c r="Z98" t="n">
         <v>0.5641139610283791</v>
       </c>
     </row>
@@ -7844,9 +8436,15 @@
         <v>-7.340925005119351</v>
       </c>
       <c r="W99" t="n">
+        <v>0.480253623188406</v>
+      </c>
+      <c r="X99" t="n">
+        <v>1.142426764255193</v>
+      </c>
+      <c r="Y99" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X99" t="n">
+      <c r="Z99" t="n">
         <v>0.5205371725166118</v>
       </c>
     </row>
@@ -7918,9 +8516,13 @@
         <v>-8.313549364398067</v>
       </c>
       <c r="W100" t="n">
+        <v>0.7096428571428575</v>
+      </c>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="n">
         <v>4.933333333333333</v>
       </c>
-      <c r="X100" t="n">
+      <c r="Z100" t="n">
         <v>0.4285407643845965</v>
       </c>
     </row>
@@ -7935,7 +8537,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X101"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8051,10 +8653,20 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>mortffr_obs</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>mortgage_nom_obs</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>unr_obs</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>wage_rgd_obs</t>
         </is>
@@ -8128,9 +8740,15 @@
         <v>9.962984094884133</v>
       </c>
       <c r="W2" t="n">
+        <v>0.8087952898550723</v>
+      </c>
+      <c r="X2" t="n">
+        <v>3.15363328292241</v>
+      </c>
+      <c r="Y2" t="n">
         <v>9.366666666666665</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>-0.4759009658764708</v>
       </c>
     </row>
@@ -8202,9 +8820,15 @@
         <v>5.04308536268919</v>
       </c>
       <c r="W3" t="n">
+        <v>0.773306159420291</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2.609384290780788</v>
+      </c>
+      <c r="Y3" t="n">
         <v>8.533333333333333</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>0.3624400212747939</v>
       </c>
     </row>
@@ -8276,9 +8900,15 @@
         <v>3.339400681539008</v>
       </c>
       <c r="W4" t="n">
+        <v>0.6303571428571426</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2.447779857357557</v>
+      </c>
+      <c r="Y4" t="n">
         <v>7.866666666666667</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>0.0187856805383563</v>
       </c>
     </row>
@@ -8350,9 +8980,15 @@
         <v>2.681724951117663</v>
       </c>
       <c r="W5" t="n">
+        <v>0.3996520146520153</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2.884840292812955</v>
+      </c>
+      <c r="Y5" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>0.08341637990603153</v>
       </c>
     </row>
@@ -8424,9 +9060,15 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
+        <v>0.3219293478260878</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2.825415705076066</v>
+      </c>
+      <c r="Y6" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>0.5550377060815963</v>
       </c>
     </row>
@@ -8498,9 +9140,15 @@
         <v>0.8781615160384618</v>
       </c>
       <c r="W7" t="n">
+        <v>0.9002083333333348</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2.585374281902362</v>
+      </c>
+      <c r="Y7" t="n">
         <v>7.300000000000001</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>0.1708529278791655</v>
       </c>
     </row>
@@ -8572,9 +9220,15 @@
         <v>0.163800200423837</v>
       </c>
       <c r="W8" t="n">
+        <v>0.970388888888889</v>
+      </c>
+      <c r="X8" t="n">
+        <v>4.838279261661252</v>
+      </c>
+      <c r="Y8" t="n">
         <v>7.233333333333333</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>0.0936451387024257</v>
       </c>
     </row>
@@ -8646,9 +9300,15 @@
         <v>0.9772064733792302</v>
       </c>
       <c r="W9" t="n">
+        <v>1.014734432234433</v>
+      </c>
+      <c r="X9" t="n">
+        <v>2.887889102968135</v>
+      </c>
+      <c r="Y9" t="n">
         <v>7.3</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>0.2652226031985177</v>
       </c>
     </row>
@@ -8720,9 +9380,15 @@
         <v>1.979203413194857</v>
       </c>
       <c r="W10" t="n">
+        <v>0.8547554347826087</v>
+      </c>
+      <c r="X10" t="n">
+        <v>4.283328736272085</v>
+      </c>
+      <c r="Y10" t="n">
         <v>7.2</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>0.9137733930902497</v>
       </c>
     </row>
@@ -8794,9 +9460,15 @@
         <v>3.487212571402014</v>
       </c>
       <c r="W11" t="n">
+        <v>0.7705525362318832</v>
+      </c>
+      <c r="X11" t="n">
+        <v>3.377405381157359</v>
+      </c>
+      <c r="Y11" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>1.131977420649275</v>
       </c>
     </row>
@@ -8868,9 +9540,15 @@
         <v>5.377104065178582</v>
       </c>
       <c r="W12" t="n">
+        <v>0.7299444444444461</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1.821793037383781</v>
+      </c>
+      <c r="Y12" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
         <v>0.8327718915132062</v>
       </c>
     </row>
@@ -8942,9 +9620,15 @@
         <v>6.338662189231478</v>
       </c>
       <c r="W13" t="n">
+        <v>0.8312179487179467</v>
+      </c>
+      <c r="X13" t="n">
+        <v>3.266066946893799</v>
+      </c>
+      <c r="Y13" t="n">
         <v>7.166666666666667</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Z13" t="n">
         <v>0.3604664869711737</v>
       </c>
     </row>
@@ -9016,9 +9700,15 @@
         <v>2.825933731440306</v>
       </c>
       <c r="W14" t="n">
+        <v>0.9993025362318846</v>
+      </c>
+      <c r="X14" t="n">
+        <v>3.995249609571855</v>
+      </c>
+      <c r="Y14" t="n">
         <v>6.966666666666666</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
         <v>0.3346420717301988</v>
       </c>
     </row>
@@ -9090,9 +9780,15 @@
         <v>0.9683174251825857</v>
       </c>
       <c r="W15" t="n">
+        <v>0.8933152173913048</v>
+      </c>
+      <c r="X15" t="n">
+        <v>3.767756284239854</v>
+      </c>
+      <c r="Y15" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Z15" t="n">
         <v>0.9439049497590892</v>
       </c>
     </row>
@@ -9164,9 +9860,15 @@
         <v>0.7853443505570304</v>
       </c>
       <c r="W16" t="n">
+        <v>0.7668611111111105</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1.947735118636464</v>
+      </c>
+      <c r="Y16" t="n">
         <v>6.599999999999999</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Z16" t="n">
         <v>-0.6129512377825054</v>
       </c>
     </row>
@@ -9238,9 +9940,15 @@
         <v>1.209517984897514</v>
       </c>
       <c r="W17" t="n">
+        <v>0.6541666666666672</v>
+      </c>
+      <c r="X17" t="n">
+        <v>4.147767327829527</v>
+      </c>
+      <c r="Y17" t="n">
         <v>6.266666666666667</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Z17" t="n">
         <v>0.4206078914575486</v>
       </c>
     </row>
@@ -9312,9 +10020,15 @@
         <v>0.5566274273321643</v>
       </c>
       <c r="W18" t="n">
+        <v>0.6326086956521739</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2.826774900665543</v>
+      </c>
+      <c r="Y18" t="n">
         <v>6</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Z18" t="n">
         <v>0.2696876592827458</v>
       </c>
     </row>
@@ -9386,9 +10100,15 @@
         <v>1.399217231107909</v>
       </c>
       <c r="W19" t="n">
+        <v>0.5842481884057971</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1.41489184132428</v>
+      </c>
+      <c r="Y19" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Z19" t="n">
         <v>0.557371050331582</v>
       </c>
     </row>
@@ -9460,9 +10180,15 @@
         <v>-1.31385657718383</v>
       </c>
       <c r="W20" t="n">
+        <v>0.6285164835164825</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2.538290967561651</v>
+      </c>
+      <c r="Y20" t="n">
         <v>5.7</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Z20" t="n">
         <v>0.7435998434387213</v>
       </c>
     </row>
@@ -9534,9 +10260,15 @@
         <v>1.692087748833718</v>
       </c>
       <c r="W21" t="n">
+        <v>0.5179304029304042</v>
+      </c>
+      <c r="X21" t="n">
+        <v>3.489634163901059</v>
+      </c>
+      <c r="Y21" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Z21" t="n">
         <v>0.1473501260968532</v>
       </c>
     </row>
@@ -9608,9 +10340,15 @@
         <v>0.6688988150796489</v>
       </c>
       <c r="W22" t="n">
+        <v>0.3266304347826092</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.91823679065083</v>
+      </c>
+      <c r="Y22" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Z22" t="n">
         <v>-0.03367691419229579</v>
       </c>
     </row>
@@ -9682,9 +10420,15 @@
         <v>1.816730395544893</v>
       </c>
       <c r="W23" t="n">
+        <v>0.2487137681159424</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.726497326586302</v>
+      </c>
+      <c r="Y23" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Z23" t="n">
         <v>-0.1885353706679958</v>
       </c>
     </row>
@@ -9756,9 +10500,15 @@
         <v>0.08179959556317626</v>
       </c>
       <c r="W24" t="n">
+        <v>0.08588888888888979</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.643544561454601</v>
+      </c>
+      <c r="Y24" t="n">
         <v>5.2</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Z24" t="n">
         <v>-0.7141146922364958</v>
       </c>
     </row>
@@ -9830,9 +10580,15 @@
         <v>-1.815231360718883</v>
       </c>
       <c r="W25" t="n">
+        <v>0.1560714285714275</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2.721931283633474</v>
+      </c>
+      <c r="Y25" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Z25" t="n">
         <v>-0.7057968438876389</v>
       </c>
     </row>
@@ -9904,9 +10660,15 @@
         <v>-0.7521974454688446</v>
       </c>
       <c r="W26" t="n">
+        <v>0.2882699275362324</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2.947527669609471</v>
+      </c>
+      <c r="Y26" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Z26" t="n">
         <v>0.08528008334099503</v>
       </c>
     </row>
@@ -9978,9 +10740,15 @@
         <v>-1.521584723725332</v>
       </c>
       <c r="W27" t="n">
+        <v>0.3705525362318833</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2.213323210101831</v>
+      </c>
+      <c r="Y27" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Z27" t="n">
         <v>0.6407714198461927</v>
       </c>
     </row>
@@ -10052,9 +10820,15 @@
         <v>1.856593412253519</v>
       </c>
       <c r="W28" t="n">
+        <v>0.4446666666666679</v>
+      </c>
+      <c r="X28" t="n">
+        <v>3.257750385284998</v>
+      </c>
+      <c r="Y28" t="n">
         <v>5.3</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Z28" t="n">
         <v>0.6923077894278937</v>
       </c>
     </row>
@@ -10126,9 +10900,15 @@
         <v>-3.531530571602695</v>
       </c>
       <c r="W29" t="n">
+        <v>0.4802481684981683</v>
+      </c>
+      <c r="X29" t="n">
+        <v>2.560864642558711</v>
+      </c>
+      <c r="Y29" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Z29" t="n">
         <v>0.9561899198492235</v>
       </c>
     </row>
@@ -10200,9 +10980,15 @@
         <v>-5.382664581262346</v>
       </c>
       <c r="W30" t="n">
+        <v>0.4706123188405811</v>
+      </c>
+      <c r="X30" t="n">
+        <v>2.122346525019553</v>
+      </c>
+      <c r="Y30" t="n">
         <v>5.7</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Z30" t="n">
         <v>0.6269900166253765</v>
       </c>
     </row>
@@ -10274,9 +11060,15 @@
         <v>-5.543927728245711</v>
       </c>
       <c r="W31" t="n">
+        <v>0.5443242753623196</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1.724470643360993</v>
+      </c>
+      <c r="Y31" t="n">
         <v>6.133333333333334</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Z31" t="n">
         <v>0.08200849935616793</v>
       </c>
     </row>
@@ -10348,9 +11140,15 @@
         <v>-5.869411928637701</v>
       </c>
       <c r="W32" t="n">
+        <v>0.8115555555555565</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1.59167876108484</v>
+      </c>
+      <c r="Y32" t="n">
         <v>6.600000000000001</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Z32" t="n">
         <v>-0.3433735223151068</v>
       </c>
     </row>
@@ -10422,9 +11220,15 @@
         <v>2.778658182330028</v>
       </c>
       <c r="W33" t="n">
+        <v>0.9039835164835168</v>
+      </c>
+      <c r="X33" t="n">
+        <v>2.382521088255797</v>
+      </c>
+      <c r="Y33" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Z33" t="n">
         <v>1.202893412487421</v>
       </c>
     </row>
@@ -10496,9 +11300,15 @@
         <v>4.67238269063617</v>
       </c>
       <c r="W34" t="n">
+        <v>0.9203623188405803</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.9190509855307156</v>
+      </c>
+      <c r="Y34" t="n">
         <v>6.866666666666667</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Z34" t="n">
         <v>0.3906350604859103</v>
       </c>
     </row>
@@ -10570,9 +11380,15 @@
         <v>1.837507530499412</v>
       </c>
       <c r="W35" t="n">
+        <v>0.9803804347826088</v>
+      </c>
+      <c r="X35" t="n">
+        <v>2.022589372440903</v>
+      </c>
+      <c r="Y35" t="n">
         <v>7.100000000000001</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Z35" t="n">
         <v>0.5721631092897534</v>
       </c>
     </row>
@@ -10644,9 +11460,15 @@
         <v>4.652001563489291</v>
       </c>
       <c r="W36" t="n">
+        <v>1.093928571428571</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1.503099379549398</v>
+      </c>
+      <c r="Y36" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Z36" t="n">
         <v>1.228339555379489</v>
       </c>
     </row>
@@ -10718,9 +11540,15 @@
         <v>4.658078189748251</v>
       </c>
       <c r="W37" t="n">
+        <v>1.173150183150183</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.211165913037192</v>
+      </c>
+      <c r="Y37" t="n">
         <v>7.600000000000001</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Z37" t="n">
         <v>0.2624515558078852</v>
       </c>
     </row>
@@ -10792,9 +11620,15 @@
         <v>0.931420789569421</v>
       </c>
       <c r="W38" t="n">
+        <v>1.159356884057971</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1.974645713851098</v>
+      </c>
+      <c r="Y38" t="n">
         <v>7.633333333333333</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Z38" t="n">
         <v>1.054626980296685</v>
       </c>
     </row>
@@ -10866,9 +11700,15 @@
         <v>4.65200156348927</v>
       </c>
       <c r="W39" t="n">
+        <v>1.183777173913043</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1.59825088905419</v>
+      </c>
+      <c r="Y39" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Z39" t="n">
         <v>-0.1371025309882777</v>
       </c>
     </row>
@@ -10940,9 +11780,15 @@
         <v>1.596203083978002</v>
       </c>
       <c r="W40" t="n">
+        <v>1.13275</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.4850840317691807</v>
+      </c>
+      <c r="Y40" t="n">
         <v>7.133333333333333</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Z40" t="n">
         <v>-0.6124616996794719</v>
       </c>
     </row>
@@ -11014,9 +11860,15 @@
         <v>2.076470297090824</v>
       </c>
       <c r="W41" t="n">
+        <v>1.06985347985348</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.861439197710495</v>
+      </c>
+      <c r="Y41" t="n">
         <v>7.066666666666666</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Z41" t="n">
         <v>-0.176749109855844</v>
       </c>
     </row>
@@ -11088,9 +11940,15 @@
         <v>4.325408693025432</v>
       </c>
       <c r="W42" t="n">
+        <v>0.9964039855072462</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1.710166196199506</v>
+      </c>
+      <c r="Y42" t="n">
         <v>6.8</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Z42" t="n">
         <v>-0.02716379543587344</v>
       </c>
     </row>
@@ -11162,9 +12020,15 @@
         <v>5.350028904258899</v>
       </c>
       <c r="W43" t="n">
+        <v>0.9521014492753619</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1.380735594952812</v>
+      </c>
+      <c r="Y43" t="n">
         <v>6.633333333333333</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Z43" t="n">
         <v>-0.1209793860945706</v>
       </c>
     </row>
@@ -11238,9 +12102,15 @@
         <v>3.118755885670458</v>
       </c>
       <c r="W44" t="n">
+        <v>0.9268333333333333</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1.004696775533694</v>
+      </c>
+      <c r="Y44" t="n">
         <v>6.566666666666666</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Z44" t="n">
         <v>0.4924393736602579</v>
       </c>
     </row>
@@ -11314,9 +12184,15 @@
         <v>3.881383827481651</v>
       </c>
       <c r="W45" t="n">
+        <v>0.8729945054945051</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1.477308904247951</v>
+      </c>
+      <c r="Y45" t="n">
         <v>6.2</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Z45" t="n">
         <v>-0.6396724750905918</v>
       </c>
     </row>
@@ -11390,9 +12266,15 @@
         <v>0.03281378208278333</v>
       </c>
       <c r="W46" t="n">
+        <v>0.8086413043478262</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1.496829968862364</v>
+      </c>
+      <c r="Y46" t="n">
         <v>6</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Z46" t="n">
         <v>-0.6618420825354925</v>
       </c>
     </row>
@@ -11466,9 +12348,15 @@
         <v>0</v>
       </c>
       <c r="W47" t="n">
+        <v>0.6613496376811594</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1.425481922786129</v>
+      </c>
+      <c r="Y47" t="n">
         <v>5.633333333333333</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Z47" t="n">
         <v>0.08668448171009542</v>
       </c>
     </row>
@@ -11542,9 +12430,15 @@
         <v>-1.022267764747582</v>
       </c>
       <c r="W48" t="n">
+        <v>0.5834722222222226</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0.8164980190834302</v>
+      </c>
+      <c r="Y48" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Z48" t="n">
         <v>0.11955294510689</v>
       </c>
     </row>
@@ -11618,9 +12512,15 @@
         <v>-2.789628045613411</v>
       </c>
       <c r="W49" t="n">
+        <v>0.4902197802197803</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1.437660580239144</v>
+      </c>
+      <c r="Y49" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Z49" t="n">
         <v>0.2013161345749452</v>
       </c>
     </row>
@@ -11694,9 +12594,15 @@
         <v>3.483272445279132</v>
       </c>
       <c r="W50" t="n">
+        <v>0.4848731884057966</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1.576129160699601</v>
+      </c>
+      <c r="Y50" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X50" t="n">
+      <c r="Z50" t="n">
         <v>0.1910193290128673</v>
       </c>
     </row>
@@ -11770,9 +12676,15 @@
         <v>2.791482780385841</v>
       </c>
       <c r="W51" t="n">
+        <v>0.4534692028985505</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0.9095470657360019</v>
+      </c>
+      <c r="Y51" t="n">
         <v>5.566666666666666</v>
       </c>
-      <c r="X51" t="n">
+      <c r="Z51" t="n">
         <v>0.4073443056279821</v>
       </c>
     </row>
@@ -11846,9 +12758,15 @@
         <v>2.9645816592752</v>
       </c>
       <c r="W52" t="n">
+        <v>0.4930860805860806</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1.356277617020229</v>
+      </c>
+      <c r="Y52" t="n">
         <v>5.533333333333334</v>
       </c>
-      <c r="X52" t="n">
+      <c r="Z52" t="n">
         <v>0.3894648829464068</v>
       </c>
     </row>
@@ -11922,9 +12840,15 @@
         <v>4.585591585422436</v>
       </c>
       <c r="W53" t="n">
+        <v>0.6498443223443229</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1.571612376995801</v>
+      </c>
+      <c r="Y53" t="n">
         <v>5.5</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Z53" t="n">
         <v>0.6140741198165393</v>
       </c>
     </row>
@@ -11998,9 +12922,15 @@
         <v>0.8276724754031047</v>
       </c>
       <c r="W54" t="n">
+        <v>0.6659510869565224</v>
+      </c>
+      <c r="X54" t="n">
+        <v>1.656144073704366</v>
+      </c>
+      <c r="Y54" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X54" t="n">
+      <c r="Z54" t="n">
         <v>0.263547839650391</v>
       </c>
     </row>
@@ -12074,9 +13004,15 @@
         <v>-0.5312881446293959</v>
       </c>
       <c r="W55" t="n">
+        <v>0.6131159420289864</v>
+      </c>
+      <c r="X55" t="n">
+        <v>1.406354671425849</v>
+      </c>
+      <c r="Y55" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X55" t="n">
+      <c r="Z55" t="n">
         <v>0.0007919174444820637</v>
       </c>
     </row>
@@ -12150,9 +13086,15 @@
         <v>0.854580123491658</v>
       </c>
       <c r="W56" t="n">
+        <v>0.6153888888888899</v>
+      </c>
+      <c r="X56" t="n">
+        <v>1.180647927875349</v>
+      </c>
+      <c r="Y56" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X56" t="n">
+      <c r="Z56" t="n">
         <v>0.07030507817540305</v>
       </c>
     </row>
@@ -12226,9 +13168,15 @@
         <v>1.745244995122621</v>
       </c>
       <c r="W57" t="n">
+        <v>0.5961172161172166</v>
+      </c>
+      <c r="X57" t="n">
+        <v>1.424337088689091</v>
+      </c>
+      <c r="Y57" t="n">
         <v>5</v>
       </c>
-      <c r="X57" t="n">
+      <c r="Z57" t="n">
         <v>0.4352116222258141</v>
       </c>
     </row>
@@ -12302,9 +13250,15 @@
         <v>1.289231436539459</v>
       </c>
       <c r="W58" t="n">
+        <v>0.5271648550724641</v>
+      </c>
+      <c r="X58" t="n">
+        <v>2.322965781594291</v>
+      </c>
+      <c r="Y58" t="n">
         <v>4.866666666666666</v>
       </c>
-      <c r="X58" t="n">
+      <c r="Z58" t="n">
         <v>0.7191211831164686</v>
       </c>
     </row>
@@ -12378,9 +13332,15 @@
         <v>1.749480286228099</v>
       </c>
       <c r="W59" t="n">
+        <v>0.4906521739130436</v>
+      </c>
+      <c r="X59" t="n">
+        <v>1.007127150844211</v>
+      </c>
+      <c r="Y59" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X59" t="n">
+      <c r="Z59" t="n">
         <v>1.378383905522504</v>
       </c>
     </row>
@@ -12454,9 +13414,15 @@
         <v>2.322470989109863</v>
       </c>
       <c r="W60" t="n">
+        <v>0.4251666666666665</v>
+      </c>
+      <c r="X60" t="n">
+        <v>1.430647922414338</v>
+      </c>
+      <c r="Y60" t="n">
         <v>4.633333333333333</v>
       </c>
-      <c r="X60" t="n">
+      <c r="Z60" t="n">
         <v>1.627979111179489</v>
       </c>
     </row>
@@ -12530,9 +13496,15 @@
         <v>3.412016675006154</v>
       </c>
       <c r="W61" t="n">
+        <v>0.4264652014652011</v>
+      </c>
+      <c r="X61" t="n">
+        <v>2.077073107508811</v>
+      </c>
+      <c r="Y61" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X61" t="n">
+      <c r="Z61" t="n">
         <v>1.16971895877371</v>
       </c>
     </row>
@@ -12606,9 +13578,15 @@
         <v>3.682033770508832</v>
       </c>
       <c r="W62" t="n">
+        <v>0.3879257246376813</v>
+      </c>
+      <c r="X62" t="n">
+        <v>1.93886886274309</v>
+      </c>
+      <c r="Y62" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X62" t="n">
+      <c r="Z62" t="n">
         <v>1.289460685542643</v>
       </c>
     </row>
@@ -12682,9 +13660,15 @@
         <v>3.305258312142185</v>
       </c>
       <c r="W63" t="n">
+        <v>0.5048641304347825</v>
+      </c>
+      <c r="X63" t="n">
+        <v>2.304719006103026</v>
+      </c>
+      <c r="Y63" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X63" t="n">
+      <c r="Z63" t="n">
         <v>0.2216216966693823</v>
       </c>
     </row>
@@ -12758,9 +13742,15 @@
         <v>1.830435486201331</v>
       </c>
       <c r="W64" t="n">
+        <v>0.5521944444444442</v>
+      </c>
+      <c r="X64" t="n">
+        <v>1.927781765140204</v>
+      </c>
+      <c r="Y64" t="n">
         <v>4.3</v>
       </c>
-      <c r="X64" t="n">
+      <c r="Z64" t="n">
         <v>1.449840218383615</v>
       </c>
     </row>
@@ -12834,9 +13824,15 @@
         <v>1.963664628876818</v>
       </c>
       <c r="W65" t="n">
+        <v>0.586410256410256</v>
+      </c>
+      <c r="X65" t="n">
+        <v>2.323456692645795</v>
+      </c>
+      <c r="Y65" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="X65" t="n">
+      <c r="Z65" t="n">
         <v>-0.03765634714971744</v>
       </c>
     </row>
@@ -12910,9 +13906,15 @@
         <v>1.436163589579108</v>
       </c>
       <c r="W66" t="n">
+        <v>0.6052807971014489</v>
+      </c>
+      <c r="X66" t="n">
+        <v>2.774187356268646</v>
+      </c>
+      <c r="Y66" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X66" t="n">
+      <c r="Z66" t="n">
         <v>0.5350136180958796</v>
       </c>
     </row>
@@ -12986,9 +13988,15 @@
         <v>2.013257863135171</v>
       </c>
       <c r="W67" t="n">
+        <v>0.5689945652173918</v>
+      </c>
+      <c r="X67" t="n">
+        <v>1.864078036767872</v>
+      </c>
+      <c r="Y67" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="X67" t="n">
+      <c r="Z67" t="n">
         <v>1.554162740819812</v>
       </c>
     </row>
@@ -13062,9 +14070,15 @@
         <v>2.712030621919382</v>
       </c>
       <c r="W68" t="n">
+        <v>0.5647435897435895</v>
+      </c>
+      <c r="X68" t="n">
+        <v>1.393692804223548</v>
+      </c>
+      <c r="Y68" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="X68" t="n">
+      <c r="Z68" t="n">
         <v>2.643571474736089</v>
       </c>
     </row>
@@ -13138,9 +14152,15 @@
         <v>0.06686727096358838</v>
       </c>
       <c r="W69" t="n">
+        <v>0.4561721611721612</v>
+      </c>
+      <c r="X69" t="n">
+        <v>2.458237156983756</v>
+      </c>
+      <c r="Y69" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="X69" t="n">
+      <c r="Z69" t="n">
         <v>-0.2252730410481293</v>
       </c>
     </row>
@@ -13214,9 +14234,15 @@
         <v>-1.278187600304275</v>
       </c>
       <c r="W70" t="n">
+        <v>0.3718025362318842</v>
+      </c>
+      <c r="X70" t="n">
+        <v>2.444978016499623</v>
+      </c>
+      <c r="Y70" t="n">
         <v>4</v>
       </c>
-      <c r="X70" t="n">
+      <c r="Z70" t="n">
         <v>1.498950395177451</v>
       </c>
     </row>
@@ -13290,9 +14316,15 @@
         <v>0.9210443635445466</v>
       </c>
       <c r="W71" t="n">
+        <v>0.319610507246376</v>
+      </c>
+      <c r="X71" t="n">
+        <v>2.000984498798462</v>
+      </c>
+      <c r="Y71" t="n">
         <v>3.9</v>
       </c>
-      <c r="X71" t="n">
+      <c r="Z71" t="n">
         <v>0.1252227237608183</v>
       </c>
     </row>
@@ -13366,9 +14398,15 @@
         <v>1.860930973213774</v>
       </c>
       <c r="W72" t="n">
+        <v>0.3999166666666676</v>
+      </c>
+      <c r="X72" t="n">
+        <v>1.755115980828378</v>
+      </c>
+      <c r="Y72" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X72" t="n">
+      <c r="Z72" t="n">
         <v>0.8302048569634537</v>
       </c>
     </row>
@@ -13442,9 +14480,15 @@
         <v>2.599799802488617</v>
       </c>
       <c r="W73" t="n">
+        <v>0.7041575091575094</v>
+      </c>
+      <c r="X73" t="n">
+        <v>3.226908585445039</v>
+      </c>
+      <c r="Y73" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X73" t="n">
+      <c r="Z73" t="n">
         <v>-0.1828974110579861</v>
       </c>
     </row>
@@ -13518,9 +14562,15 @@
         <v>2.116033248047892</v>
       </c>
       <c r="W74" t="n">
+        <v>0.8896195652173914</v>
+      </c>
+      <c r="X74" t="n">
+        <v>2.956962076923184</v>
+      </c>
+      <c r="Y74" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X74" t="n">
+      <c r="Z74" t="n">
         <v>0.1532205057472692</v>
       </c>
     </row>
@@ -13594,9 +14644,15 @@
         <v>-0.2725654271577613</v>
       </c>
       <c r="W75" t="n">
+        <v>1.144057971014493</v>
+      </c>
+      <c r="X75" t="n">
+        <v>2.106507940897485</v>
+      </c>
+      <c r="Y75" t="n">
         <v>5.5</v>
       </c>
-      <c r="X75" t="n">
+      <c r="Z75" t="n">
         <v>0.3076405365812666</v>
       </c>
     </row>
@@ -13670,9 +14726,15 @@
         <v>2.262680858887241</v>
       </c>
       <c r="W76" t="n">
+        <v>1.280111111111111</v>
+      </c>
+      <c r="X76" t="n">
+        <v>2.556290508934249</v>
+      </c>
+      <c r="Y76" t="n">
         <v>5.7</v>
       </c>
-      <c r="X76" t="n">
+      <c r="Z76" t="n">
         <v>1.153584418529487</v>
       </c>
     </row>
@@ -13746,9 +14808,15 @@
         <v>2.793138468917747</v>
       </c>
       <c r="W77" t="n">
+        <v>1.260448717948718</v>
+      </c>
+      <c r="X77" t="n">
+        <v>3.193849598429004</v>
+      </c>
+      <c r="Y77" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X77" t="n">
+      <c r="Z77" t="n">
         <v>0.6721419935359457</v>
       </c>
     </row>
@@ -13822,9 +14890,15 @@
         <v>0.8744093869229062</v>
       </c>
       <c r="W78" t="n">
+        <v>1.163115942028986</v>
+      </c>
+      <c r="X78" t="n">
+        <v>3.382704536301659</v>
+      </c>
+      <c r="Y78" t="n">
         <v>5.733333333333333</v>
       </c>
-      <c r="X78" t="n">
+      <c r="Z78" t="n">
         <v>0.1220987828536571</v>
       </c>
     </row>
@@ -13898,9 +14972,15 @@
         <v>3.250894546241287</v>
       </c>
       <c r="W79" t="n">
+        <v>1.164773550724638</v>
+      </c>
+      <c r="X79" t="n">
+        <v>3.335926404035621</v>
+      </c>
+      <c r="Y79" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X79" t="n">
+      <c r="Z79" t="n">
         <v>-0.573988567694194</v>
       </c>
     </row>
@@ -13974,9 +15054,15 @@
         <v>3.241286192667455</v>
       </c>
       <c r="W80" t="n">
+        <v>1.16175</v>
+      </c>
+      <c r="X80" t="n">
+        <v>2.883834431706596</v>
+      </c>
+      <c r="Y80" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X80" t="n">
+      <c r="Z80" t="n">
         <v>0.6024531868168667</v>
       </c>
     </row>
@@ -14050,9 +15136,15 @@
         <v>2.544759744742195</v>
       </c>
       <c r="W81" t="n">
+        <v>1.08915750915751</v>
+      </c>
+      <c r="X81" t="n">
+        <v>4.092584021883129</v>
+      </c>
+      <c r="Y81" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X81" t="n">
+      <c r="Z81" t="n">
         <v>1.283160434102258</v>
       </c>
     </row>
@@ -14126,9 +15218,15 @@
         <v>5.657577446718212</v>
       </c>
       <c r="W82" t="n">
+        <v>1.165788043478261</v>
+      </c>
+      <c r="X82" t="n">
+        <v>3.700284309245446</v>
+      </c>
+      <c r="Y82" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X82" t="n">
+      <c r="Z82" t="n">
         <v>0.8035425434530054</v>
       </c>
     </row>
@@ -14202,9 +15300,15 @@
         <v>4.378309979712185</v>
       </c>
       <c r="W83" t="n">
+        <v>1.208315217391304</v>
+      </c>
+      <c r="X83" t="n">
+        <v>3.053349690820164</v>
+      </c>
+      <c r="Y83" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X83" t="n">
+      <c r="Z83" t="n">
         <v>0.3021226481335962</v>
       </c>
     </row>
@@ -14278,9 +15382,15 @@
         <v>3.312732572661011</v>
       </c>
       <c r="W84" t="n">
+        <v>1.154532967032967</v>
+      </c>
+      <c r="X84" t="n">
+        <v>2.442215663267359</v>
+      </c>
+      <c r="Y84" t="n">
         <v>5.7</v>
       </c>
-      <c r="X84" t="n">
+      <c r="Z84" t="n">
         <v>-0.9344074427186128</v>
       </c>
     </row>
@@ -14354,9 +15464,15 @@
         <v>5.971235738267619</v>
       </c>
       <c r="W85" t="n">
+        <v>1.178003663003663</v>
+      </c>
+      <c r="X85" t="n">
+        <v>3.778850455339486</v>
+      </c>
+      <c r="Y85" t="n">
         <v>5.599999999999999</v>
       </c>
-      <c r="X85" t="n">
+      <c r="Z85" t="n">
         <v>0.2964375750173121</v>
       </c>
     </row>
@@ -14430,9 +15546,15 @@
         <v>3.066779845347599</v>
       </c>
       <c r="W86" t="n">
+        <v>1.098976449275362</v>
+      </c>
+      <c r="X86" t="n">
+        <v>3.243024438646115</v>
+      </c>
+      <c r="Y86" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X86" t="n">
+      <c r="Z86" t="n">
         <v>0.764010936566182</v>
       </c>
     </row>
@@ -14506,9 +15628,15 @@
         <v>2.087877930737528</v>
       </c>
       <c r="W87" t="n">
+        <v>0.9550271739130435</v>
+      </c>
+      <c r="X87" t="n">
+        <v>3.328424582974502</v>
+      </c>
+      <c r="Y87" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X87" t="n">
+      <c r="Z87" t="n">
         <v>0.499586314917211</v>
       </c>
     </row>
@@ -14582,9 +15710,15 @@
         <v>2.887431223545009</v>
       </c>
       <c r="W88" t="n">
+        <v>0.8302499999999997</v>
+      </c>
+      <c r="X88" t="n">
+        <v>2.703413482439003</v>
+      </c>
+      <c r="Y88" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X88" t="n">
+      <c r="Z88" t="n">
         <v>-0.1188313760429649</v>
       </c>
     </row>
@@ -14658,9 +15792,15 @@
         <v>3.975997057717344</v>
       </c>
       <c r="W89" t="n">
+        <v>0.7203937728937729</v>
+      </c>
+      <c r="X89" t="n">
+        <v>3.43869398959077</v>
+      </c>
+      <c r="Y89" t="n">
         <v>5.066666666666666</v>
       </c>
-      <c r="X89" t="n">
+      <c r="Z89" t="n">
         <v>-0.27025499768329</v>
       </c>
     </row>
@@ -14734,9 +15874,15 @@
         <v>3.747602244410744</v>
       </c>
       <c r="W90" t="n">
+        <v>0.5941666666666664</v>
+      </c>
+      <c r="X90" t="n">
+        <v>3.391335399011536</v>
+      </c>
+      <c r="Y90" t="n">
         <v>5</v>
       </c>
-      <c r="X90" t="n">
+      <c r="Z90" t="n">
         <v>0.5690785392900894</v>
       </c>
     </row>
@@ -14810,9 +15956,15 @@
         <v>2.177967376498581</v>
       </c>
       <c r="W91" t="n">
+        <v>0.557934782608696</v>
+      </c>
+      <c r="X91" t="n">
+        <v>2.918458922592683</v>
+      </c>
+      <c r="Y91" t="n">
         <v>4.933333333333334</v>
       </c>
-      <c r="X91" t="n">
+      <c r="Z91" t="n">
         <v>-0.1818474865033131</v>
       </c>
     </row>
@@ -14886,9 +16038,15 @@
         <v>0.7938518495003513</v>
       </c>
       <c r="W92" t="n">
+        <v>0.4848055555555564</v>
+      </c>
+      <c r="X92" t="n">
+        <v>3.299154487576608</v>
+      </c>
+      <c r="Y92" t="n">
         <v>4.7</v>
       </c>
-      <c r="X92" t="n">
+      <c r="Z92" t="n">
         <v>0.8172831116543728</v>
       </c>
     </row>
@@ -14962,9 +16120,15 @@
         <v>-2.654136768086178</v>
       </c>
       <c r="W93" t="n">
+        <v>0.4356043956043951</v>
+      </c>
+      <c r="X93" t="n">
+        <v>3.270203388442527</v>
+      </c>
+      <c r="Y93" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X93" t="n">
+      <c r="Z93" t="n">
         <v>-0.8579090165815045</v>
       </c>
     </row>
@@ -15038,9 +16202,15 @@
         <v>-5.489222528343467</v>
       </c>
       <c r="W94" t="n">
+        <v>0.3803351449275361</v>
+      </c>
+      <c r="X94" t="n">
+        <v>2.452670051098675</v>
+      </c>
+      <c r="Y94" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="X94" t="n">
+      <c r="Z94" t="n">
         <v>-0.221713758450432</v>
       </c>
     </row>
@@ -15114,9 +16284,15 @@
         <v>-4.21576043631306</v>
       </c>
       <c r="W95" t="n">
+        <v>0.3200996376811596</v>
+      </c>
+      <c r="X95" t="n">
+        <v>1.561745592277124</v>
+      </c>
+      <c r="Y95" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X95" t="n">
+      <c r="Z95" t="n">
         <v>2.476441511320538</v>
       </c>
     </row>
@@ -15190,9 +16366,15 @@
         <v>-3.964020557361168</v>
       </c>
       <c r="W96" t="n">
+        <v>0.2855277777777772</v>
+      </c>
+      <c r="X96" t="n">
+        <v>1.985720555225968</v>
+      </c>
+      <c r="Y96" t="n">
         <v>4.5</v>
       </c>
-      <c r="X96" t="n">
+      <c r="Z96" t="n">
         <v>0.5129902326024814</v>
       </c>
     </row>
@@ -15266,9 +16448,15 @@
         <v>-3.357558599948794</v>
       </c>
       <c r="W97" t="n">
+        <v>0.2968956043956039</v>
+      </c>
+      <c r="X97" t="n">
+        <v>2.009313040563272</v>
+      </c>
+      <c r="Y97" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X97" t="n">
+      <c r="Z97" t="n">
         <v>-0.3279870240885046</v>
       </c>
     </row>
@@ -15342,9 +16530,15 @@
         <v>-5.806134843854087</v>
       </c>
       <c r="W98" t="n">
+        <v>0.4147463768115944</v>
+      </c>
+      <c r="X98" t="n">
+        <v>1.466721578856795</v>
+      </c>
+      <c r="Y98" t="n">
         <v>4.7</v>
       </c>
-      <c r="X98" t="n">
+      <c r="Z98" t="n">
         <v>0.5641139610283791</v>
       </c>
     </row>
@@ -15418,9 +16612,15 @@
         <v>-7.340925005119351</v>
       </c>
       <c r="W99" t="n">
+        <v>0.480253623188406</v>
+      </c>
+      <c r="X99" t="n">
+        <v>1.142426764255193</v>
+      </c>
+      <c r="Y99" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X99" t="n">
+      <c r="Z99" t="n">
         <v>0.5205371725166118</v>
       </c>
     </row>
@@ -15492,9 +16692,13 @@
         <v>-8.313549364398067</v>
       </c>
       <c r="W100" t="n">
+        <v>0.7096428571428575</v>
+      </c>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="n">
         <v>4.933333333333333</v>
       </c>
-      <c r="X100" t="n">
+      <c r="Z100" t="n">
         <v>0.4285407643845965</v>
       </c>
     </row>
@@ -15539,6 +16743,8 @@
       </c>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -15551,7 +16757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X101"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15667,10 +16873,20 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>mortffr_obs</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>mortgage_nom_obs</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>unr_obs</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>wage_rgd_obs</t>
         </is>
@@ -15744,9 +16960,15 @@
         <v>9.962984094884133</v>
       </c>
       <c r="W2" t="n">
+        <v>0.8087952898550723</v>
+      </c>
+      <c r="X2" t="n">
+        <v>3.15363328292241</v>
+      </c>
+      <c r="Y2" t="n">
         <v>9.366666666666665</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>-0.4759009658764708</v>
       </c>
     </row>
@@ -15818,9 +17040,15 @@
         <v>5.04308536268919</v>
       </c>
       <c r="W3" t="n">
+        <v>0.773306159420291</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2.609384290780788</v>
+      </c>
+      <c r="Y3" t="n">
         <v>8.533333333333333</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>0.3624400212747939</v>
       </c>
     </row>
@@ -15892,9 +17120,15 @@
         <v>3.339400681539008</v>
       </c>
       <c r="W4" t="n">
+        <v>0.6303571428571426</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2.447779857357557</v>
+      </c>
+      <c r="Y4" t="n">
         <v>7.866666666666667</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>0.0187856805383563</v>
       </c>
     </row>
@@ -15966,9 +17200,15 @@
         <v>2.681724951117663</v>
       </c>
       <c r="W5" t="n">
+        <v>0.3996520146520153</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2.884840292812955</v>
+      </c>
+      <c r="Y5" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>0.08341637990603153</v>
       </c>
     </row>
@@ -16040,9 +17280,15 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
+        <v>0.3219293478260878</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2.825415705076066</v>
+      </c>
+      <c r="Y6" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>0.5550377060815963</v>
       </c>
     </row>
@@ -16114,9 +17360,15 @@
         <v>0.8781615160384618</v>
       </c>
       <c r="W7" t="n">
+        <v>0.9002083333333348</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2.585374281902362</v>
+      </c>
+      <c r="Y7" t="n">
         <v>7.300000000000001</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>0.1708529278791655</v>
       </c>
     </row>
@@ -16188,9 +17440,15 @@
         <v>0.163800200423837</v>
       </c>
       <c r="W8" t="n">
+        <v>0.970388888888889</v>
+      </c>
+      <c r="X8" t="n">
+        <v>4.838279261661252</v>
+      </c>
+      <c r="Y8" t="n">
         <v>7.233333333333333</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>0.0936451387024257</v>
       </c>
     </row>
@@ -16262,9 +17520,15 @@
         <v>0.9772064733792302</v>
       </c>
       <c r="W9" t="n">
+        <v>1.014734432234433</v>
+      </c>
+      <c r="X9" t="n">
+        <v>2.887889102968135</v>
+      </c>
+      <c r="Y9" t="n">
         <v>7.3</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>0.2652226031985177</v>
       </c>
     </row>
@@ -16336,9 +17600,15 @@
         <v>1.979203413194857</v>
       </c>
       <c r="W10" t="n">
+        <v>0.8547554347826087</v>
+      </c>
+      <c r="X10" t="n">
+        <v>4.283328736272085</v>
+      </c>
+      <c r="Y10" t="n">
         <v>7.2</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>0.9137733930902497</v>
       </c>
     </row>
@@ -16410,9 +17680,15 @@
         <v>3.487212571402014</v>
       </c>
       <c r="W11" t="n">
+        <v>0.7705525362318832</v>
+      </c>
+      <c r="X11" t="n">
+        <v>3.377405381157359</v>
+      </c>
+      <c r="Y11" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>1.131977420649275</v>
       </c>
     </row>
@@ -16484,9 +17760,15 @@
         <v>5.377104065178582</v>
       </c>
       <c r="W12" t="n">
+        <v>0.7299444444444461</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1.821793037383781</v>
+      </c>
+      <c r="Y12" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
         <v>0.8327718915132062</v>
       </c>
     </row>
@@ -16558,9 +17840,15 @@
         <v>6.338662189231478</v>
       </c>
       <c r="W13" t="n">
+        <v>0.8312179487179467</v>
+      </c>
+      <c r="X13" t="n">
+        <v>3.266066946893799</v>
+      </c>
+      <c r="Y13" t="n">
         <v>7.166666666666667</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Z13" t="n">
         <v>0.3604664869711737</v>
       </c>
     </row>
@@ -16632,9 +17920,15 @@
         <v>2.825933731440306</v>
       </c>
       <c r="W14" t="n">
+        <v>0.9993025362318846</v>
+      </c>
+      <c r="X14" t="n">
+        <v>3.995249609571855</v>
+      </c>
+      <c r="Y14" t="n">
         <v>6.966666666666666</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
         <v>0.3346420717301988</v>
       </c>
     </row>
@@ -16706,9 +18000,15 @@
         <v>0.9683174251825857</v>
       </c>
       <c r="W15" t="n">
+        <v>0.8933152173913048</v>
+      </c>
+      <c r="X15" t="n">
+        <v>3.767756284239854</v>
+      </c>
+      <c r="Y15" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Z15" t="n">
         <v>0.9439049497590892</v>
       </c>
     </row>
@@ -16780,9 +18080,15 @@
         <v>0.7853443505570304</v>
       </c>
       <c r="W16" t="n">
+        <v>0.7668611111111105</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1.947735118636464</v>
+      </c>
+      <c r="Y16" t="n">
         <v>6.599999999999999</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Z16" t="n">
         <v>-0.6129512377825054</v>
       </c>
     </row>
@@ -16854,9 +18160,15 @@
         <v>1.209517984897514</v>
       </c>
       <c r="W17" t="n">
+        <v>0.6541666666666672</v>
+      </c>
+      <c r="X17" t="n">
+        <v>4.147767327829527</v>
+      </c>
+      <c r="Y17" t="n">
         <v>6.266666666666667</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Z17" t="n">
         <v>0.4206078914575486</v>
       </c>
     </row>
@@ -16928,9 +18240,15 @@
         <v>0.5566274273321643</v>
       </c>
       <c r="W18" t="n">
+        <v>0.6326086956521739</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2.826774900665543</v>
+      </c>
+      <c r="Y18" t="n">
         <v>6</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Z18" t="n">
         <v>0.2696876592827458</v>
       </c>
     </row>
@@ -17002,9 +18320,15 @@
         <v>1.399217231107909</v>
       </c>
       <c r="W19" t="n">
+        <v>0.5842481884057971</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1.41489184132428</v>
+      </c>
+      <c r="Y19" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Z19" t="n">
         <v>0.557371050331582</v>
       </c>
     </row>
@@ -17076,9 +18400,15 @@
         <v>-1.31385657718383</v>
       </c>
       <c r="W20" t="n">
+        <v>0.6285164835164825</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2.538290967561651</v>
+      </c>
+      <c r="Y20" t="n">
         <v>5.7</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Z20" t="n">
         <v>0.7435998434387213</v>
       </c>
     </row>
@@ -17150,9 +18480,15 @@
         <v>1.692087748833718</v>
       </c>
       <c r="W21" t="n">
+        <v>0.5179304029304042</v>
+      </c>
+      <c r="X21" t="n">
+        <v>3.489634163901059</v>
+      </c>
+      <c r="Y21" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Z21" t="n">
         <v>0.1473501260968532</v>
       </c>
     </row>
@@ -17224,9 +18560,15 @@
         <v>0.6688988150796489</v>
       </c>
       <c r="W22" t="n">
+        <v>0.3266304347826092</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.91823679065083</v>
+      </c>
+      <c r="Y22" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Z22" t="n">
         <v>-0.03367691419229579</v>
       </c>
     </row>
@@ -17298,9 +18640,15 @@
         <v>1.816730395544893</v>
       </c>
       <c r="W23" t="n">
+        <v>0.2487137681159424</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.726497326586302</v>
+      </c>
+      <c r="Y23" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Z23" t="n">
         <v>-0.1885353706679958</v>
       </c>
     </row>
@@ -17372,9 +18720,15 @@
         <v>0.08179959556317626</v>
       </c>
       <c r="W24" t="n">
+        <v>0.08588888888888979</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.643544561454601</v>
+      </c>
+      <c r="Y24" t="n">
         <v>5.2</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Z24" t="n">
         <v>-0.7141146922364958</v>
       </c>
     </row>
@@ -17446,9 +18800,15 @@
         <v>-1.815231360718883</v>
       </c>
       <c r="W25" t="n">
+        <v>0.1560714285714275</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2.721931283633474</v>
+      </c>
+      <c r="Y25" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Z25" t="n">
         <v>-0.7057968438876389</v>
       </c>
     </row>
@@ -17520,9 +18880,15 @@
         <v>-0.7521974454688446</v>
       </c>
       <c r="W26" t="n">
+        <v>0.2882699275362324</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2.947527669609471</v>
+      </c>
+      <c r="Y26" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Z26" t="n">
         <v>0.08528008334099503</v>
       </c>
     </row>
@@ -17594,9 +18960,15 @@
         <v>-1.521584723725332</v>
       </c>
       <c r="W27" t="n">
+        <v>0.3705525362318833</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2.213323210101831</v>
+      </c>
+      <c r="Y27" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Z27" t="n">
         <v>0.6407714198461927</v>
       </c>
     </row>
@@ -17668,9 +19040,15 @@
         <v>1.856593412253519</v>
       </c>
       <c r="W28" t="n">
+        <v>0.4446666666666679</v>
+      </c>
+      <c r="X28" t="n">
+        <v>3.257750385284998</v>
+      </c>
+      <c r="Y28" t="n">
         <v>5.3</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Z28" t="n">
         <v>0.6923077894278937</v>
       </c>
     </row>
@@ -17742,9 +19120,15 @@
         <v>-3.531530571602695</v>
       </c>
       <c r="W29" t="n">
+        <v>0.4802481684981683</v>
+      </c>
+      <c r="X29" t="n">
+        <v>2.560864642558711</v>
+      </c>
+      <c r="Y29" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Z29" t="n">
         <v>0.9561899198492235</v>
       </c>
     </row>
@@ -17816,9 +19200,15 @@
         <v>-5.382664581262346</v>
       </c>
       <c r="W30" t="n">
+        <v>0.4706123188405811</v>
+      </c>
+      <c r="X30" t="n">
+        <v>2.122346525019553</v>
+      </c>
+      <c r="Y30" t="n">
         <v>5.7</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Z30" t="n">
         <v>0.6269900166253765</v>
       </c>
     </row>
@@ -17890,9 +19280,15 @@
         <v>-5.543927728245711</v>
       </c>
       <c r="W31" t="n">
+        <v>0.5443242753623196</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1.724470643360993</v>
+      </c>
+      <c r="Y31" t="n">
         <v>6.133333333333334</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Z31" t="n">
         <v>0.08200849935616793</v>
       </c>
     </row>
@@ -17964,9 +19360,15 @@
         <v>-5.869411928637701</v>
       </c>
       <c r="W32" t="n">
+        <v>0.8115555555555565</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1.59167876108484</v>
+      </c>
+      <c r="Y32" t="n">
         <v>6.600000000000001</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Z32" t="n">
         <v>-0.3433735223151068</v>
       </c>
     </row>
@@ -18038,9 +19440,15 @@
         <v>2.778658182330028</v>
       </c>
       <c r="W33" t="n">
+        <v>0.9039835164835168</v>
+      </c>
+      <c r="X33" t="n">
+        <v>2.382521088255797</v>
+      </c>
+      <c r="Y33" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Z33" t="n">
         <v>1.202893412487421</v>
       </c>
     </row>
@@ -18112,9 +19520,15 @@
         <v>4.67238269063617</v>
       </c>
       <c r="W34" t="n">
+        <v>0.9203623188405803</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.9190509855307156</v>
+      </c>
+      <c r="Y34" t="n">
         <v>6.866666666666667</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Z34" t="n">
         <v>0.3906350604859103</v>
       </c>
     </row>
@@ -18186,9 +19600,15 @@
         <v>1.837507530499412</v>
       </c>
       <c r="W35" t="n">
+        <v>0.9803804347826088</v>
+      </c>
+      <c r="X35" t="n">
+        <v>2.022589372440903</v>
+      </c>
+      <c r="Y35" t="n">
         <v>7.100000000000001</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Z35" t="n">
         <v>0.5721631092897534</v>
       </c>
     </row>
@@ -18260,9 +19680,15 @@
         <v>4.652001563489291</v>
       </c>
       <c r="W36" t="n">
+        <v>1.093928571428571</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1.503099379549398</v>
+      </c>
+      <c r="Y36" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Z36" t="n">
         <v>1.228339555379489</v>
       </c>
     </row>
@@ -18334,9 +19760,15 @@
         <v>4.658078189748251</v>
       </c>
       <c r="W37" t="n">
+        <v>1.173150183150183</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.211165913037192</v>
+      </c>
+      <c r="Y37" t="n">
         <v>7.600000000000001</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Z37" t="n">
         <v>0.2624515558078852</v>
       </c>
     </row>
@@ -18408,9 +19840,15 @@
         <v>0.931420789569421</v>
       </c>
       <c r="W38" t="n">
+        <v>1.159356884057971</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1.974645713851098</v>
+      </c>
+      <c r="Y38" t="n">
         <v>7.633333333333333</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Z38" t="n">
         <v>1.054626980296685</v>
       </c>
     </row>
@@ -18482,9 +19920,15 @@
         <v>4.65200156348927</v>
       </c>
       <c r="W39" t="n">
+        <v>1.183777173913043</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1.59825088905419</v>
+      </c>
+      <c r="Y39" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Z39" t="n">
         <v>-0.1371025309882777</v>
       </c>
     </row>
@@ -18556,9 +20000,15 @@
         <v>1.596203083978002</v>
       </c>
       <c r="W40" t="n">
+        <v>1.13275</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.4850840317691807</v>
+      </c>
+      <c r="Y40" t="n">
         <v>7.133333333333333</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Z40" t="n">
         <v>-0.6124616996794719</v>
       </c>
     </row>
@@ -18630,9 +20080,15 @@
         <v>2.076470297090824</v>
       </c>
       <c r="W41" t="n">
+        <v>1.06985347985348</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.861439197710495</v>
+      </c>
+      <c r="Y41" t="n">
         <v>7.066666666666666</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Z41" t="n">
         <v>-0.176749109855844</v>
       </c>
     </row>
@@ -18704,9 +20160,15 @@
         <v>4.325408693025432</v>
       </c>
       <c r="W42" t="n">
+        <v>0.9964039855072462</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1.710166196199506</v>
+      </c>
+      <c r="Y42" t="n">
         <v>6.8</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Z42" t="n">
         <v>-0.02716379543587344</v>
       </c>
     </row>
@@ -18778,9 +20240,15 @@
         <v>5.350028904258899</v>
       </c>
       <c r="W43" t="n">
+        <v>0.9521014492753619</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1.380735594952812</v>
+      </c>
+      <c r="Y43" t="n">
         <v>6.633333333333333</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Z43" t="n">
         <v>-0.1209793860945706</v>
       </c>
     </row>
@@ -18854,9 +20322,15 @@
         <v>3.118755885670458</v>
       </c>
       <c r="W44" t="n">
+        <v>0.9268333333333333</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1.004696775533694</v>
+      </c>
+      <c r="Y44" t="n">
         <v>6.566666666666666</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Z44" t="n">
         <v>0.4924393736602579</v>
       </c>
     </row>
@@ -18930,9 +20404,15 @@
         <v>3.881383827481651</v>
       </c>
       <c r="W45" t="n">
+        <v>0.8729945054945051</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1.477308904247951</v>
+      </c>
+      <c r="Y45" t="n">
         <v>6.2</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Z45" t="n">
         <v>-0.6396724750905918</v>
       </c>
     </row>
@@ -19006,9 +20486,15 @@
         <v>0.03281378208278333</v>
       </c>
       <c r="W46" t="n">
+        <v>0.8086413043478262</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1.496829968862364</v>
+      </c>
+      <c r="Y46" t="n">
         <v>6</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Z46" t="n">
         <v>-0.6618420825354925</v>
       </c>
     </row>
@@ -19082,9 +20568,15 @@
         <v>0</v>
       </c>
       <c r="W47" t="n">
+        <v>0.6613496376811594</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1.425481922786129</v>
+      </c>
+      <c r="Y47" t="n">
         <v>5.633333333333333</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Z47" t="n">
         <v>0.08668448171009542</v>
       </c>
     </row>
@@ -19158,9 +20650,15 @@
         <v>-1.022267764747582</v>
       </c>
       <c r="W48" t="n">
+        <v>0.5834722222222226</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0.8164980190834302</v>
+      </c>
+      <c r="Y48" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Z48" t="n">
         <v>0.11955294510689</v>
       </c>
     </row>
@@ -19234,9 +20732,15 @@
         <v>-2.789628045613411</v>
       </c>
       <c r="W49" t="n">
+        <v>0.4902197802197803</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1.437660580239144</v>
+      </c>
+      <c r="Y49" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Z49" t="n">
         <v>0.2013161345749452</v>
       </c>
     </row>
@@ -19310,9 +20814,15 @@
         <v>3.483272445279132</v>
       </c>
       <c r="W50" t="n">
+        <v>0.4848731884057966</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1.576129160699601</v>
+      </c>
+      <c r="Y50" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X50" t="n">
+      <c r="Z50" t="n">
         <v>0.1910193290128673</v>
       </c>
     </row>
@@ -19386,9 +20896,15 @@
         <v>2.791482780385841</v>
       </c>
       <c r="W51" t="n">
+        <v>0.4534692028985505</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0.9095470657360019</v>
+      </c>
+      <c r="Y51" t="n">
         <v>5.566666666666666</v>
       </c>
-      <c r="X51" t="n">
+      <c r="Z51" t="n">
         <v>0.4073443056279821</v>
       </c>
     </row>
@@ -19462,9 +20978,15 @@
         <v>2.9645816592752</v>
       </c>
       <c r="W52" t="n">
+        <v>0.4930860805860806</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1.356277617020229</v>
+      </c>
+      <c r="Y52" t="n">
         <v>5.533333333333334</v>
       </c>
-      <c r="X52" t="n">
+      <c r="Z52" t="n">
         <v>0.3894648829464068</v>
       </c>
     </row>
@@ -19538,9 +21060,15 @@
         <v>4.585591585422436</v>
       </c>
       <c r="W53" t="n">
+        <v>0.6498443223443229</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1.571612376995801</v>
+      </c>
+      <c r="Y53" t="n">
         <v>5.5</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Z53" t="n">
         <v>0.6140741198165393</v>
       </c>
     </row>
@@ -19614,9 +21142,15 @@
         <v>0.8276724754031047</v>
       </c>
       <c r="W54" t="n">
+        <v>0.6659510869565224</v>
+      </c>
+      <c r="X54" t="n">
+        <v>1.656144073704366</v>
+      </c>
+      <c r="Y54" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X54" t="n">
+      <c r="Z54" t="n">
         <v>0.263547839650391</v>
       </c>
     </row>
@@ -19690,9 +21224,15 @@
         <v>-0.5312881446293959</v>
       </c>
       <c r="W55" t="n">
+        <v>0.6131159420289864</v>
+      </c>
+      <c r="X55" t="n">
+        <v>1.406354671425849</v>
+      </c>
+      <c r="Y55" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X55" t="n">
+      <c r="Z55" t="n">
         <v>0.0007919174444820637</v>
       </c>
     </row>
@@ -19766,9 +21306,15 @@
         <v>0.854580123491658</v>
       </c>
       <c r="W56" t="n">
+        <v>0.6153888888888899</v>
+      </c>
+      <c r="X56" t="n">
+        <v>1.180647927875349</v>
+      </c>
+      <c r="Y56" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X56" t="n">
+      <c r="Z56" t="n">
         <v>0.07030507817540305</v>
       </c>
     </row>
@@ -19842,9 +21388,15 @@
         <v>1.745244995122621</v>
       </c>
       <c r="W57" t="n">
+        <v>0.5961172161172166</v>
+      </c>
+      <c r="X57" t="n">
+        <v>1.424337088689091</v>
+      </c>
+      <c r="Y57" t="n">
         <v>5</v>
       </c>
-      <c r="X57" t="n">
+      <c r="Z57" t="n">
         <v>0.4352116222258141</v>
       </c>
     </row>
@@ -19918,9 +21470,15 @@
         <v>1.289231436539459</v>
       </c>
       <c r="W58" t="n">
+        <v>0.5271648550724641</v>
+      </c>
+      <c r="X58" t="n">
+        <v>2.322965781594291</v>
+      </c>
+      <c r="Y58" t="n">
         <v>4.866666666666666</v>
       </c>
-      <c r="X58" t="n">
+      <c r="Z58" t="n">
         <v>0.7191211831164686</v>
       </c>
     </row>
@@ -19994,9 +21552,15 @@
         <v>1.749480286228099</v>
       </c>
       <c r="W59" t="n">
+        <v>0.4906521739130436</v>
+      </c>
+      <c r="X59" t="n">
+        <v>1.007127150844211</v>
+      </c>
+      <c r="Y59" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X59" t="n">
+      <c r="Z59" t="n">
         <v>1.378383905522504</v>
       </c>
     </row>
@@ -20070,9 +21634,15 @@
         <v>2.322470989109863</v>
       </c>
       <c r="W60" t="n">
+        <v>0.4251666666666665</v>
+      </c>
+      <c r="X60" t="n">
+        <v>1.430647922414338</v>
+      </c>
+      <c r="Y60" t="n">
         <v>4.633333333333333</v>
       </c>
-      <c r="X60" t="n">
+      <c r="Z60" t="n">
         <v>1.627979111179489</v>
       </c>
     </row>
@@ -20146,9 +21716,15 @@
         <v>3.412016675006154</v>
       </c>
       <c r="W61" t="n">
+        <v>0.4264652014652011</v>
+      </c>
+      <c r="X61" t="n">
+        <v>2.077073107508811</v>
+      </c>
+      <c r="Y61" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X61" t="n">
+      <c r="Z61" t="n">
         <v>1.16971895877371</v>
       </c>
     </row>
@@ -20222,9 +21798,15 @@
         <v>3.682033770508832</v>
       </c>
       <c r="W62" t="n">
+        <v>0.3879257246376813</v>
+      </c>
+      <c r="X62" t="n">
+        <v>1.93886886274309</v>
+      </c>
+      <c r="Y62" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X62" t="n">
+      <c r="Z62" t="n">
         <v>1.289460685542643</v>
       </c>
     </row>
@@ -20298,9 +21880,15 @@
         <v>3.305258312142185</v>
       </c>
       <c r="W63" t="n">
+        <v>0.5048641304347825</v>
+      </c>
+      <c r="X63" t="n">
+        <v>2.304719006103026</v>
+      </c>
+      <c r="Y63" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X63" t="n">
+      <c r="Z63" t="n">
         <v>0.2216216966693823</v>
       </c>
     </row>
@@ -20374,9 +21962,15 @@
         <v>1.830435486201331</v>
       </c>
       <c r="W64" t="n">
+        <v>0.5521944444444442</v>
+      </c>
+      <c r="X64" t="n">
+        <v>1.927781765140204</v>
+      </c>
+      <c r="Y64" t="n">
         <v>4.3</v>
       </c>
-      <c r="X64" t="n">
+      <c r="Z64" t="n">
         <v>1.449840218383615</v>
       </c>
     </row>
@@ -20450,9 +22044,15 @@
         <v>1.963664628876818</v>
       </c>
       <c r="W65" t="n">
+        <v>0.586410256410256</v>
+      </c>
+      <c r="X65" t="n">
+        <v>2.323456692645795</v>
+      </c>
+      <c r="Y65" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="X65" t="n">
+      <c r="Z65" t="n">
         <v>-0.03765634714971744</v>
       </c>
     </row>
@@ -20526,9 +22126,15 @@
         <v>1.436163589579108</v>
       </c>
       <c r="W66" t="n">
+        <v>0.6052807971014489</v>
+      </c>
+      <c r="X66" t="n">
+        <v>2.774187356268646</v>
+      </c>
+      <c r="Y66" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X66" t="n">
+      <c r="Z66" t="n">
         <v>0.5350136180958796</v>
       </c>
     </row>
@@ -20602,9 +22208,15 @@
         <v>2.013257863135171</v>
       </c>
       <c r="W67" t="n">
+        <v>0.5689945652173918</v>
+      </c>
+      <c r="X67" t="n">
+        <v>1.864078036767872</v>
+      </c>
+      <c r="Y67" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="X67" t="n">
+      <c r="Z67" t="n">
         <v>1.554162740819812</v>
       </c>
     </row>
@@ -20678,9 +22290,15 @@
         <v>2.712030621919382</v>
       </c>
       <c r="W68" t="n">
+        <v>0.5647435897435895</v>
+      </c>
+      <c r="X68" t="n">
+        <v>1.393692804223548</v>
+      </c>
+      <c r="Y68" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="X68" t="n">
+      <c r="Z68" t="n">
         <v>2.643571474736089</v>
       </c>
     </row>
@@ -20754,9 +22372,15 @@
         <v>0.06686727096358838</v>
       </c>
       <c r="W69" t="n">
+        <v>0.4561721611721612</v>
+      </c>
+      <c r="X69" t="n">
+        <v>2.458237156983756</v>
+      </c>
+      <c r="Y69" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="X69" t="n">
+      <c r="Z69" t="n">
         <v>-0.2252730410481293</v>
       </c>
     </row>
@@ -20830,9 +22454,15 @@
         <v>-1.278187600304275</v>
       </c>
       <c r="W70" t="n">
+        <v>0.3718025362318842</v>
+      </c>
+      <c r="X70" t="n">
+        <v>2.444978016499623</v>
+      </c>
+      <c r="Y70" t="n">
         <v>4</v>
       </c>
-      <c r="X70" t="n">
+      <c r="Z70" t="n">
         <v>1.498950395177451</v>
       </c>
     </row>
@@ -20906,9 +22536,15 @@
         <v>0.9210443635445466</v>
       </c>
       <c r="W71" t="n">
+        <v>0.319610507246376</v>
+      </c>
+      <c r="X71" t="n">
+        <v>2.000984498798462</v>
+      </c>
+      <c r="Y71" t="n">
         <v>3.9</v>
       </c>
-      <c r="X71" t="n">
+      <c r="Z71" t="n">
         <v>0.1252227237608183</v>
       </c>
     </row>
@@ -20982,9 +22618,15 @@
         <v>1.860930973213774</v>
       </c>
       <c r="W72" t="n">
+        <v>0.3999166666666676</v>
+      </c>
+      <c r="X72" t="n">
+        <v>1.755115980828378</v>
+      </c>
+      <c r="Y72" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X72" t="n">
+      <c r="Z72" t="n">
         <v>0.8302048569634537</v>
       </c>
     </row>
@@ -21058,9 +22700,15 @@
         <v>2.599799802488617</v>
       </c>
       <c r="W73" t="n">
+        <v>0.7041575091575094</v>
+      </c>
+      <c r="X73" t="n">
+        <v>3.226908585445039</v>
+      </c>
+      <c r="Y73" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X73" t="n">
+      <c r="Z73" t="n">
         <v>-0.1828974110579861</v>
       </c>
     </row>
@@ -21134,9 +22782,15 @@
         <v>2.116033248047892</v>
       </c>
       <c r="W74" t="n">
+        <v>0.8896195652173914</v>
+      </c>
+      <c r="X74" t="n">
+        <v>2.956962076923184</v>
+      </c>
+      <c r="Y74" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X74" t="n">
+      <c r="Z74" t="n">
         <v>0.1532205057472692</v>
       </c>
     </row>
@@ -21210,9 +22864,15 @@
         <v>-0.2725654271577613</v>
       </c>
       <c r="W75" t="n">
+        <v>1.144057971014493</v>
+      </c>
+      <c r="X75" t="n">
+        <v>2.106507940897485</v>
+      </c>
+      <c r="Y75" t="n">
         <v>5.5</v>
       </c>
-      <c r="X75" t="n">
+      <c r="Z75" t="n">
         <v>0.3076405365812666</v>
       </c>
     </row>
@@ -21286,9 +22946,15 @@
         <v>2.262680858887241</v>
       </c>
       <c r="W76" t="n">
+        <v>1.280111111111111</v>
+      </c>
+      <c r="X76" t="n">
+        <v>2.556290508934249</v>
+      </c>
+      <c r="Y76" t="n">
         <v>5.7</v>
       </c>
-      <c r="X76" t="n">
+      <c r="Z76" t="n">
         <v>1.153584418529487</v>
       </c>
     </row>
@@ -21362,9 +23028,15 @@
         <v>2.793138468917747</v>
       </c>
       <c r="W77" t="n">
+        <v>1.260448717948718</v>
+      </c>
+      <c r="X77" t="n">
+        <v>3.193849598429004</v>
+      </c>
+      <c r="Y77" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X77" t="n">
+      <c r="Z77" t="n">
         <v>0.6721419935359457</v>
       </c>
     </row>
@@ -21438,9 +23110,15 @@
         <v>0.8744093869229062</v>
       </c>
       <c r="W78" t="n">
+        <v>1.163115942028986</v>
+      </c>
+      <c r="X78" t="n">
+        <v>3.382704536301659</v>
+      </c>
+      <c r="Y78" t="n">
         <v>5.733333333333333</v>
       </c>
-      <c r="X78" t="n">
+      <c r="Z78" t="n">
         <v>0.1220987828536571</v>
       </c>
     </row>
@@ -21514,9 +23192,15 @@
         <v>3.250894546241287</v>
       </c>
       <c r="W79" t="n">
+        <v>1.164773550724638</v>
+      </c>
+      <c r="X79" t="n">
+        <v>3.335926404035621</v>
+      </c>
+      <c r="Y79" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X79" t="n">
+      <c r="Z79" t="n">
         <v>-0.573988567694194</v>
       </c>
     </row>
@@ -21590,9 +23274,15 @@
         <v>3.241286192667455</v>
       </c>
       <c r="W80" t="n">
+        <v>1.16175</v>
+      </c>
+      <c r="X80" t="n">
+        <v>2.883834431706596</v>
+      </c>
+      <c r="Y80" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X80" t="n">
+      <c r="Z80" t="n">
         <v>0.6024531868168667</v>
       </c>
     </row>
@@ -21666,9 +23356,15 @@
         <v>2.544759744742195</v>
       </c>
       <c r="W81" t="n">
+        <v>1.08915750915751</v>
+      </c>
+      <c r="X81" t="n">
+        <v>4.092584021883129</v>
+      </c>
+      <c r="Y81" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X81" t="n">
+      <c r="Z81" t="n">
         <v>1.283160434102258</v>
       </c>
     </row>
@@ -21742,9 +23438,15 @@
         <v>5.657577446718212</v>
       </c>
       <c r="W82" t="n">
+        <v>1.165788043478261</v>
+      </c>
+      <c r="X82" t="n">
+        <v>3.700284309245446</v>
+      </c>
+      <c r="Y82" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X82" t="n">
+      <c r="Z82" t="n">
         <v>0.8035425434530054</v>
       </c>
     </row>
@@ -21818,9 +23520,15 @@
         <v>4.378309979712185</v>
       </c>
       <c r="W83" t="n">
+        <v>1.208315217391304</v>
+      </c>
+      <c r="X83" t="n">
+        <v>3.053349690820164</v>
+      </c>
+      <c r="Y83" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X83" t="n">
+      <c r="Z83" t="n">
         <v>0.3021226481335962</v>
       </c>
     </row>
@@ -21894,9 +23602,15 @@
         <v>3.312732572661011</v>
       </c>
       <c r="W84" t="n">
+        <v>1.154532967032967</v>
+      </c>
+      <c r="X84" t="n">
+        <v>2.442215663267359</v>
+      </c>
+      <c r="Y84" t="n">
         <v>5.7</v>
       </c>
-      <c r="X84" t="n">
+      <c r="Z84" t="n">
         <v>-0.9344074427186128</v>
       </c>
     </row>
@@ -21970,9 +23684,15 @@
         <v>5.971235738267619</v>
       </c>
       <c r="W85" t="n">
+        <v>1.178003663003663</v>
+      </c>
+      <c r="X85" t="n">
+        <v>3.778850455339486</v>
+      </c>
+      <c r="Y85" t="n">
         <v>5.599999999999999</v>
       </c>
-      <c r="X85" t="n">
+      <c r="Z85" t="n">
         <v>0.2964375750173121</v>
       </c>
     </row>
@@ -22046,9 +23766,15 @@
         <v>3.066779845347599</v>
       </c>
       <c r="W86" t="n">
+        <v>1.098976449275362</v>
+      </c>
+      <c r="X86" t="n">
+        <v>3.243024438646115</v>
+      </c>
+      <c r="Y86" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X86" t="n">
+      <c r="Z86" t="n">
         <v>0.764010936566182</v>
       </c>
     </row>
@@ -22122,9 +23848,15 @@
         <v>2.087877930737528</v>
       </c>
       <c r="W87" t="n">
+        <v>0.9550271739130435</v>
+      </c>
+      <c r="X87" t="n">
+        <v>3.328424582974502</v>
+      </c>
+      <c r="Y87" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X87" t="n">
+      <c r="Z87" t="n">
         <v>0.499586314917211</v>
       </c>
     </row>
@@ -22198,9 +23930,15 @@
         <v>2.887431223545009</v>
       </c>
       <c r="W88" t="n">
+        <v>0.8302499999999997</v>
+      </c>
+      <c r="X88" t="n">
+        <v>2.703413482439003</v>
+      </c>
+      <c r="Y88" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X88" t="n">
+      <c r="Z88" t="n">
         <v>-0.1188313760429649</v>
       </c>
     </row>
@@ -22274,9 +24012,15 @@
         <v>3.975997057717344</v>
       </c>
       <c r="W89" t="n">
+        <v>0.7203937728937729</v>
+      </c>
+      <c r="X89" t="n">
+        <v>3.43869398959077</v>
+      </c>
+      <c r="Y89" t="n">
         <v>5.066666666666666</v>
       </c>
-      <c r="X89" t="n">
+      <c r="Z89" t="n">
         <v>-0.27025499768329</v>
       </c>
     </row>
@@ -22350,9 +24094,15 @@
         <v>3.747602244410744</v>
       </c>
       <c r="W90" t="n">
+        <v>0.5941666666666664</v>
+      </c>
+      <c r="X90" t="n">
+        <v>3.391335399011536</v>
+      </c>
+      <c r="Y90" t="n">
         <v>5</v>
       </c>
-      <c r="X90" t="n">
+      <c r="Z90" t="n">
         <v>0.5690785392900894</v>
       </c>
     </row>
@@ -22426,9 +24176,15 @@
         <v>2.177967376498581</v>
       </c>
       <c r="W91" t="n">
+        <v>0.557934782608696</v>
+      </c>
+      <c r="X91" t="n">
+        <v>2.918458922592683</v>
+      </c>
+      <c r="Y91" t="n">
         <v>4.933333333333334</v>
       </c>
-      <c r="X91" t="n">
+      <c r="Z91" t="n">
         <v>-0.1818474865033131</v>
       </c>
     </row>
@@ -22502,9 +24258,15 @@
         <v>0.7938518495003513</v>
       </c>
       <c r="W92" t="n">
+        <v>0.4848055555555564</v>
+      </c>
+      <c r="X92" t="n">
+        <v>3.299154487576608</v>
+      </c>
+      <c r="Y92" t="n">
         <v>4.7</v>
       </c>
-      <c r="X92" t="n">
+      <c r="Z92" t="n">
         <v>0.8172831116543728</v>
       </c>
     </row>
@@ -22578,9 +24340,15 @@
         <v>-2.654136768086178</v>
       </c>
       <c r="W93" t="n">
+        <v>0.4356043956043951</v>
+      </c>
+      <c r="X93" t="n">
+        <v>3.270203388442527</v>
+      </c>
+      <c r="Y93" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X93" t="n">
+      <c r="Z93" t="n">
         <v>-0.8579090165815045</v>
       </c>
     </row>
@@ -22654,9 +24422,15 @@
         <v>-5.489222528343467</v>
       </c>
       <c r="W94" t="n">
+        <v>0.3803351449275361</v>
+      </c>
+      <c r="X94" t="n">
+        <v>2.452670051098675</v>
+      </c>
+      <c r="Y94" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="X94" t="n">
+      <c r="Z94" t="n">
         <v>-0.221713758450432</v>
       </c>
     </row>
@@ -22730,9 +24504,15 @@
         <v>-4.21576043631306</v>
       </c>
       <c r="W95" t="n">
+        <v>0.3200996376811596</v>
+      </c>
+      <c r="X95" t="n">
+        <v>1.561745592277124</v>
+      </c>
+      <c r="Y95" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X95" t="n">
+      <c r="Z95" t="n">
         <v>2.476441511320538</v>
       </c>
     </row>
@@ -22806,9 +24586,15 @@
         <v>-3.964020557361168</v>
       </c>
       <c r="W96" t="n">
+        <v>0.2855277777777772</v>
+      </c>
+      <c r="X96" t="n">
+        <v>1.985720555225968</v>
+      </c>
+      <c r="Y96" t="n">
         <v>4.5</v>
       </c>
-      <c r="X96" t="n">
+      <c r="Z96" t="n">
         <v>0.5129902326024814</v>
       </c>
     </row>
@@ -22882,9 +24668,15 @@
         <v>-3.357558599948794</v>
       </c>
       <c r="W97" t="n">
+        <v>0.2968956043956039</v>
+      </c>
+      <c r="X97" t="n">
+        <v>2.009313040563272</v>
+      </c>
+      <c r="Y97" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X97" t="n">
+      <c r="Z97" t="n">
         <v>-0.3279870240885046</v>
       </c>
     </row>
@@ -22958,9 +24750,15 @@
         <v>-5.806134843854087</v>
       </c>
       <c r="W98" t="n">
+        <v>0.4147463768115944</v>
+      </c>
+      <c r="X98" t="n">
+        <v>1.466721578856795</v>
+      </c>
+      <c r="Y98" t="n">
         <v>4.7</v>
       </c>
-      <c r="X98" t="n">
+      <c r="Z98" t="n">
         <v>0.5641139610283791</v>
       </c>
     </row>
@@ -23034,9 +24832,15 @@
         <v>-7.340925005119351</v>
       </c>
       <c r="W99" t="n">
+        <v>0.480253623188406</v>
+      </c>
+      <c r="X99" t="n">
+        <v>1.142426764255193</v>
+      </c>
+      <c r="Y99" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X99" t="n">
+      <c r="Z99" t="n">
         <v>0.5205371725166118</v>
       </c>
     </row>
@@ -23108,9 +24912,13 @@
         <v>-8.313549364398067</v>
       </c>
       <c r="W100" t="n">
+        <v>0.7096428571428575</v>
+      </c>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="n">
         <v>4.933333333333333</v>
       </c>
-      <c r="X100" t="n">
+      <c r="Z100" t="n">
         <v>0.4285407643845965</v>
       </c>
     </row>
@@ -23142,9 +24950,7 @@
       <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
-      <c r="P101" t="n">
-        <v>-45.50767591222578</v>
-      </c>
+      <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
@@ -23153,6 +24959,8 @@
       <c r="V101" t="inlineStr"/>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -23165,7 +24973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X101"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23281,10 +25089,20 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>mortffr_obs</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>mortgage_nom_obs</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>unr_obs</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>wage_rgd_obs</t>
         </is>
@@ -23358,9 +25176,15 @@
         <v>9.962984094884133</v>
       </c>
       <c r="W2" t="n">
+        <v>0.8087952898550723</v>
+      </c>
+      <c r="X2" t="n">
+        <v>3.15363328292241</v>
+      </c>
+      <c r="Y2" t="n">
         <v>9.366666666666665</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>-0.4759009658764708</v>
       </c>
     </row>
@@ -23432,9 +25256,15 @@
         <v>5.04308536268919</v>
       </c>
       <c r="W3" t="n">
+        <v>0.773306159420291</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2.609384290780788</v>
+      </c>
+      <c r="Y3" t="n">
         <v>8.533333333333333</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>0.3624400212747939</v>
       </c>
     </row>
@@ -23506,9 +25336,15 @@
         <v>3.339400681539008</v>
       </c>
       <c r="W4" t="n">
+        <v>0.6303571428571426</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2.447779857357557</v>
+      </c>
+      <c r="Y4" t="n">
         <v>7.866666666666667</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>0.0187856805383563</v>
       </c>
     </row>
@@ -23580,9 +25416,15 @@
         <v>2.681724951117663</v>
       </c>
       <c r="W5" t="n">
+        <v>0.3996520146520153</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2.884840292812955</v>
+      </c>
+      <c r="Y5" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>0.08341637990603153</v>
       </c>
     </row>
@@ -23654,9 +25496,15 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
+        <v>0.3219293478260878</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2.825415705076066</v>
+      </c>
+      <c r="Y6" t="n">
         <v>7.433333333333334</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>0.5550377060815963</v>
       </c>
     </row>
@@ -23728,9 +25576,15 @@
         <v>0.8781615160384618</v>
       </c>
       <c r="W7" t="n">
+        <v>0.9002083333333348</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2.585374281902362</v>
+      </c>
+      <c r="Y7" t="n">
         <v>7.300000000000001</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>0.1708529278791655</v>
       </c>
     </row>
@@ -23802,9 +25656,15 @@
         <v>0.163800200423837</v>
       </c>
       <c r="W8" t="n">
+        <v>0.970388888888889</v>
+      </c>
+      <c r="X8" t="n">
+        <v>4.838279261661252</v>
+      </c>
+      <c r="Y8" t="n">
         <v>7.233333333333333</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>0.0936451387024257</v>
       </c>
     </row>
@@ -23876,9 +25736,15 @@
         <v>0.9772064733792302</v>
       </c>
       <c r="W9" t="n">
+        <v>1.014734432234433</v>
+      </c>
+      <c r="X9" t="n">
+        <v>2.887889102968135</v>
+      </c>
+      <c r="Y9" t="n">
         <v>7.3</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>0.2652226031985177</v>
       </c>
     </row>
@@ -23950,9 +25816,15 @@
         <v>1.979203413194857</v>
       </c>
       <c r="W10" t="n">
+        <v>0.8547554347826087</v>
+      </c>
+      <c r="X10" t="n">
+        <v>4.283328736272085</v>
+      </c>
+      <c r="Y10" t="n">
         <v>7.2</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>0.9137733930902497</v>
       </c>
     </row>
@@ -24024,9 +25896,15 @@
         <v>3.487212571402014</v>
       </c>
       <c r="W11" t="n">
+        <v>0.7705525362318832</v>
+      </c>
+      <c r="X11" t="n">
+        <v>3.377405381157359</v>
+      </c>
+      <c r="Y11" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>1.131977420649275</v>
       </c>
     </row>
@@ -24098,9 +25976,15 @@
         <v>5.377104065178582</v>
       </c>
       <c r="W12" t="n">
+        <v>0.7299444444444461</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1.821793037383781</v>
+      </c>
+      <c r="Y12" t="n">
         <v>7.033333333333334</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
         <v>0.8327718915132062</v>
       </c>
     </row>
@@ -24172,9 +26056,15 @@
         <v>6.338662189231478</v>
       </c>
       <c r="W13" t="n">
+        <v>0.8312179487179467</v>
+      </c>
+      <c r="X13" t="n">
+        <v>3.266066946893799</v>
+      </c>
+      <c r="Y13" t="n">
         <v>7.166666666666667</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Z13" t="n">
         <v>0.3604664869711737</v>
       </c>
     </row>
@@ -24246,9 +26136,15 @@
         <v>2.825933731440306</v>
       </c>
       <c r="W14" t="n">
+        <v>0.9993025362318846</v>
+      </c>
+      <c r="X14" t="n">
+        <v>3.995249609571855</v>
+      </c>
+      <c r="Y14" t="n">
         <v>6.966666666666666</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
         <v>0.3346420717301988</v>
       </c>
     </row>
@@ -24320,9 +26216,15 @@
         <v>0.9683174251825857</v>
       </c>
       <c r="W15" t="n">
+        <v>0.8933152173913048</v>
+      </c>
+      <c r="X15" t="n">
+        <v>3.767756284239854</v>
+      </c>
+      <c r="Y15" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Z15" t="n">
         <v>0.9439049497590892</v>
       </c>
     </row>
@@ -24394,9 +26296,15 @@
         <v>0.7853443505570304</v>
       </c>
       <c r="W16" t="n">
+        <v>0.7668611111111105</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1.947735118636464</v>
+      </c>
+      <c r="Y16" t="n">
         <v>6.599999999999999</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Z16" t="n">
         <v>-0.6129512377825054</v>
       </c>
     </row>
@@ -24468,9 +26376,15 @@
         <v>1.209517984897514</v>
       </c>
       <c r="W17" t="n">
+        <v>0.6541666666666672</v>
+      </c>
+      <c r="X17" t="n">
+        <v>4.147767327829527</v>
+      </c>
+      <c r="Y17" t="n">
         <v>6.266666666666667</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Z17" t="n">
         <v>0.4206078914575486</v>
       </c>
     </row>
@@ -24542,9 +26456,15 @@
         <v>0.5566274273321643</v>
       </c>
       <c r="W18" t="n">
+        <v>0.6326086956521739</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2.826774900665543</v>
+      </c>
+      <c r="Y18" t="n">
         <v>6</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Z18" t="n">
         <v>0.2696876592827458</v>
       </c>
     </row>
@@ -24616,9 +26536,15 @@
         <v>1.399217231107909</v>
       </c>
       <c r="W19" t="n">
+        <v>0.5842481884057971</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1.41489184132428</v>
+      </c>
+      <c r="Y19" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Z19" t="n">
         <v>0.557371050331582</v>
       </c>
     </row>
@@ -24690,9 +26616,15 @@
         <v>-1.31385657718383</v>
       </c>
       <c r="W20" t="n">
+        <v>0.6285164835164825</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2.538290967561651</v>
+      </c>
+      <c r="Y20" t="n">
         <v>5.7</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Z20" t="n">
         <v>0.7435998434387213</v>
       </c>
     </row>
@@ -24764,9 +26696,15 @@
         <v>1.692087748833718</v>
       </c>
       <c r="W21" t="n">
+        <v>0.5179304029304042</v>
+      </c>
+      <c r="X21" t="n">
+        <v>3.489634163901059</v>
+      </c>
+      <c r="Y21" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Z21" t="n">
         <v>0.1473501260968532</v>
       </c>
     </row>
@@ -24838,9 +26776,15 @@
         <v>0.6688988150796489</v>
       </c>
       <c r="W22" t="n">
+        <v>0.3266304347826092</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.91823679065083</v>
+      </c>
+      <c r="Y22" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Z22" t="n">
         <v>-0.03367691419229579</v>
       </c>
     </row>
@@ -24912,9 +26856,15 @@
         <v>1.816730395544893</v>
       </c>
       <c r="W23" t="n">
+        <v>0.2487137681159424</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2.726497326586302</v>
+      </c>
+      <c r="Y23" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Z23" t="n">
         <v>-0.1885353706679958</v>
       </c>
     </row>
@@ -24986,9 +26936,15 @@
         <v>0.08179959556317626</v>
       </c>
       <c r="W24" t="n">
+        <v>0.08588888888888979</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.643544561454601</v>
+      </c>
+      <c r="Y24" t="n">
         <v>5.2</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Z24" t="n">
         <v>-0.7141146922364958</v>
       </c>
     </row>
@@ -25060,9 +27016,15 @@
         <v>-1.815231360718883</v>
       </c>
       <c r="W25" t="n">
+        <v>0.1560714285714275</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2.721931283633474</v>
+      </c>
+      <c r="Y25" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Z25" t="n">
         <v>-0.7057968438876389</v>
       </c>
     </row>
@@ -25134,9 +27096,15 @@
         <v>-0.7521974454688446</v>
       </c>
       <c r="W26" t="n">
+        <v>0.2882699275362324</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2.947527669609471</v>
+      </c>
+      <c r="Y26" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Z26" t="n">
         <v>0.08528008334099503</v>
       </c>
     </row>
@@ -25208,9 +27176,15 @@
         <v>-1.521584723725332</v>
       </c>
       <c r="W27" t="n">
+        <v>0.3705525362318833</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2.213323210101831</v>
+      </c>
+      <c r="Y27" t="n">
         <v>5.366666666666667</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Z27" t="n">
         <v>0.6407714198461927</v>
       </c>
     </row>
@@ -25282,9 +27256,15 @@
         <v>1.856593412253519</v>
       </c>
       <c r="W28" t="n">
+        <v>0.4446666666666679</v>
+      </c>
+      <c r="X28" t="n">
+        <v>3.257750385284998</v>
+      </c>
+      <c r="Y28" t="n">
         <v>5.3</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Z28" t="n">
         <v>0.6923077894278937</v>
       </c>
     </row>
@@ -25356,9 +27336,15 @@
         <v>-3.531530571602695</v>
       </c>
       <c r="W29" t="n">
+        <v>0.4802481684981683</v>
+      </c>
+      <c r="X29" t="n">
+        <v>2.560864642558711</v>
+      </c>
+      <c r="Y29" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Z29" t="n">
         <v>0.9561899198492235</v>
       </c>
     </row>
@@ -25430,9 +27416,15 @@
         <v>-5.382664581262346</v>
       </c>
       <c r="W30" t="n">
+        <v>0.4706123188405811</v>
+      </c>
+      <c r="X30" t="n">
+        <v>2.122346525019553</v>
+      </c>
+      <c r="Y30" t="n">
         <v>5.7</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Z30" t="n">
         <v>0.6269900166253765</v>
       </c>
     </row>
@@ -25504,9 +27496,15 @@
         <v>-5.543927728245711</v>
       </c>
       <c r="W31" t="n">
+        <v>0.5443242753623196</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1.724470643360993</v>
+      </c>
+      <c r="Y31" t="n">
         <v>6.133333333333334</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Z31" t="n">
         <v>0.08200849935616793</v>
       </c>
     </row>
@@ -25578,9 +27576,15 @@
         <v>-5.869411928637701</v>
       </c>
       <c r="W32" t="n">
+        <v>0.8115555555555565</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1.59167876108484</v>
+      </c>
+      <c r="Y32" t="n">
         <v>6.600000000000001</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Z32" t="n">
         <v>-0.3433735223151068</v>
       </c>
     </row>
@@ -25652,9 +27656,15 @@
         <v>2.778658182330028</v>
       </c>
       <c r="W33" t="n">
+        <v>0.9039835164835168</v>
+      </c>
+      <c r="X33" t="n">
+        <v>2.382521088255797</v>
+      </c>
+      <c r="Y33" t="n">
         <v>6.833333333333333</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Z33" t="n">
         <v>1.202893412487421</v>
       </c>
     </row>
@@ -25726,9 +27736,15 @@
         <v>4.67238269063617</v>
       </c>
       <c r="W34" t="n">
+        <v>0.9203623188405803</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.9190509855307156</v>
+      </c>
+      <c r="Y34" t="n">
         <v>6.866666666666667</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Z34" t="n">
         <v>0.3906350604859103</v>
       </c>
     </row>
@@ -25800,9 +27816,15 @@
         <v>1.837507530499412</v>
       </c>
       <c r="W35" t="n">
+        <v>0.9803804347826088</v>
+      </c>
+      <c r="X35" t="n">
+        <v>2.022589372440903</v>
+      </c>
+      <c r="Y35" t="n">
         <v>7.100000000000001</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Z35" t="n">
         <v>0.5721631092897534</v>
       </c>
     </row>
@@ -25874,9 +27896,15 @@
         <v>4.652001563489291</v>
       </c>
       <c r="W36" t="n">
+        <v>1.093928571428571</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1.503099379549398</v>
+      </c>
+      <c r="Y36" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Z36" t="n">
         <v>1.228339555379489</v>
       </c>
     </row>
@@ -25948,9 +27976,15 @@
         <v>4.658078189748251</v>
       </c>
       <c r="W37" t="n">
+        <v>1.173150183150183</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.211165913037192</v>
+      </c>
+      <c r="Y37" t="n">
         <v>7.600000000000001</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Z37" t="n">
         <v>0.2624515558078852</v>
       </c>
     </row>
@@ -26022,9 +28056,15 @@
         <v>0.931420789569421</v>
       </c>
       <c r="W38" t="n">
+        <v>1.159356884057971</v>
+      </c>
+      <c r="X38" t="n">
+        <v>1.974645713851098</v>
+      </c>
+      <c r="Y38" t="n">
         <v>7.633333333333333</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Z38" t="n">
         <v>1.054626980296685</v>
       </c>
     </row>
@@ -26096,9 +28136,15 @@
         <v>4.65200156348927</v>
       </c>
       <c r="W39" t="n">
+        <v>1.183777173913043</v>
+      </c>
+      <c r="X39" t="n">
+        <v>1.59825088905419</v>
+      </c>
+      <c r="Y39" t="n">
         <v>7.366666666666667</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Z39" t="n">
         <v>-0.1371025309882777</v>
       </c>
     </row>
@@ -26170,9 +28216,15 @@
         <v>1.596203083978002</v>
       </c>
       <c r="W40" t="n">
+        <v>1.13275</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.4850840317691807</v>
+      </c>
+      <c r="Y40" t="n">
         <v>7.133333333333333</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Z40" t="n">
         <v>-0.6124616996794719</v>
       </c>
     </row>
@@ -26244,9 +28296,15 @@
         <v>2.076470297090824</v>
       </c>
       <c r="W41" t="n">
+        <v>1.06985347985348</v>
+      </c>
+      <c r="X41" t="n">
+        <v>1.861439197710495</v>
+      </c>
+      <c r="Y41" t="n">
         <v>7.066666666666666</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Z41" t="n">
         <v>-0.176749109855844</v>
       </c>
     </row>
@@ -26318,9 +28376,15 @@
         <v>4.325408693025432</v>
       </c>
       <c r="W42" t="n">
+        <v>0.9964039855072462</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1.710166196199506</v>
+      </c>
+      <c r="Y42" t="n">
         <v>6.8</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Z42" t="n">
         <v>-0.02716379543587344</v>
       </c>
     </row>
@@ -26392,9 +28456,15 @@
         <v>5.350028904258899</v>
       </c>
       <c r="W43" t="n">
+        <v>0.9521014492753619</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1.380735594952812</v>
+      </c>
+      <c r="Y43" t="n">
         <v>6.633333333333333</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Z43" t="n">
         <v>-0.1209793860945706</v>
       </c>
     </row>
@@ -26468,9 +28538,15 @@
         <v>3.118755885670458</v>
       </c>
       <c r="W44" t="n">
+        <v>0.9268333333333333</v>
+      </c>
+      <c r="X44" t="n">
+        <v>1.004696775533694</v>
+      </c>
+      <c r="Y44" t="n">
         <v>6.566666666666666</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Z44" t="n">
         <v>0.4924393736602579</v>
       </c>
     </row>
@@ -26544,9 +28620,15 @@
         <v>3.881383827481651</v>
       </c>
       <c r="W45" t="n">
+        <v>0.8729945054945051</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1.477308904247951</v>
+      </c>
+      <c r="Y45" t="n">
         <v>6.2</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Z45" t="n">
         <v>-0.6396724750905918</v>
       </c>
     </row>
@@ -26620,9 +28702,15 @@
         <v>0.03281378208278333</v>
       </c>
       <c r="W46" t="n">
+        <v>0.8086413043478262</v>
+      </c>
+      <c r="X46" t="n">
+        <v>1.496829968862364</v>
+      </c>
+      <c r="Y46" t="n">
         <v>6</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Z46" t="n">
         <v>-0.6618420825354925</v>
       </c>
     </row>
@@ -26696,9 +28784,15 @@
         <v>0</v>
       </c>
       <c r="W47" t="n">
+        <v>0.6613496376811594</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1.425481922786129</v>
+      </c>
+      <c r="Y47" t="n">
         <v>5.633333333333333</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Z47" t="n">
         <v>0.08668448171009542</v>
       </c>
     </row>
@@ -26772,9 +28866,15 @@
         <v>-1.022267764747582</v>
       </c>
       <c r="W48" t="n">
+        <v>0.5834722222222226</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0.8164980190834302</v>
+      </c>
+      <c r="Y48" t="n">
         <v>5.466666666666666</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Z48" t="n">
         <v>0.11955294510689</v>
       </c>
     </row>
@@ -26848,9 +28948,15 @@
         <v>-2.789628045613411</v>
       </c>
       <c r="W49" t="n">
+        <v>0.4902197802197803</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1.437660580239144</v>
+      </c>
+      <c r="Y49" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Z49" t="n">
         <v>0.2013161345749452</v>
       </c>
     </row>
@@ -26924,9 +29030,15 @@
         <v>3.483272445279132</v>
       </c>
       <c r="W50" t="n">
+        <v>0.4848731884057966</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1.576129160699601</v>
+      </c>
+      <c r="Y50" t="n">
         <v>5.666666666666667</v>
       </c>
-      <c r="X50" t="n">
+      <c r="Z50" t="n">
         <v>0.1910193290128673</v>
       </c>
     </row>
@@ -27000,9 +29112,15 @@
         <v>2.791482780385841</v>
       </c>
       <c r="W51" t="n">
+        <v>0.4534692028985505</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0.9095470657360019</v>
+      </c>
+      <c r="Y51" t="n">
         <v>5.566666666666666</v>
       </c>
-      <c r="X51" t="n">
+      <c r="Z51" t="n">
         <v>0.4073443056279821</v>
       </c>
     </row>
@@ -27076,9 +29194,15 @@
         <v>2.9645816592752</v>
       </c>
       <c r="W52" t="n">
+        <v>0.4930860805860806</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1.356277617020229</v>
+      </c>
+      <c r="Y52" t="n">
         <v>5.533333333333334</v>
       </c>
-      <c r="X52" t="n">
+      <c r="Z52" t="n">
         <v>0.3894648829464068</v>
       </c>
     </row>
@@ -27152,9 +29276,15 @@
         <v>4.585591585422436</v>
       </c>
       <c r="W53" t="n">
+        <v>0.6498443223443229</v>
+      </c>
+      <c r="X53" t="n">
+        <v>1.571612376995801</v>
+      </c>
+      <c r="Y53" t="n">
         <v>5.5</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Z53" t="n">
         <v>0.6140741198165393</v>
       </c>
     </row>
@@ -27228,9 +29358,15 @@
         <v>0.8276724754031047</v>
       </c>
       <c r="W54" t="n">
+        <v>0.6659510869565224</v>
+      </c>
+      <c r="X54" t="n">
+        <v>1.656144073704366</v>
+      </c>
+      <c r="Y54" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X54" t="n">
+      <c r="Z54" t="n">
         <v>0.263547839650391</v>
       </c>
     </row>
@@ -27304,9 +29440,15 @@
         <v>-0.5312881446293959</v>
       </c>
       <c r="W55" t="n">
+        <v>0.6131159420289864</v>
+      </c>
+      <c r="X55" t="n">
+        <v>1.406354671425849</v>
+      </c>
+      <c r="Y55" t="n">
         <v>5.333333333333333</v>
       </c>
-      <c r="X55" t="n">
+      <c r="Z55" t="n">
         <v>0.0007919174444820637</v>
       </c>
     </row>
@@ -27380,9 +29522,15 @@
         <v>0.854580123491658</v>
       </c>
       <c r="W56" t="n">
+        <v>0.6153888888888899</v>
+      </c>
+      <c r="X56" t="n">
+        <v>1.180647927875349</v>
+      </c>
+      <c r="Y56" t="n">
         <v>5.233333333333333</v>
       </c>
-      <c r="X56" t="n">
+      <c r="Z56" t="n">
         <v>0.07030507817540305</v>
       </c>
     </row>
@@ -27456,9 +29604,15 @@
         <v>1.745244995122621</v>
       </c>
       <c r="W57" t="n">
+        <v>0.5961172161172166</v>
+      </c>
+      <c r="X57" t="n">
+        <v>1.424337088689091</v>
+      </c>
+      <c r="Y57" t="n">
         <v>5</v>
       </c>
-      <c r="X57" t="n">
+      <c r="Z57" t="n">
         <v>0.4352116222258141</v>
       </c>
     </row>
@@ -27532,9 +29686,15 @@
         <v>1.289231436539459</v>
       </c>
       <c r="W58" t="n">
+        <v>0.5271648550724641</v>
+      </c>
+      <c r="X58" t="n">
+        <v>2.322965781594291</v>
+      </c>
+      <c r="Y58" t="n">
         <v>4.866666666666666</v>
       </c>
-      <c r="X58" t="n">
+      <c r="Z58" t="n">
         <v>0.7191211831164686</v>
       </c>
     </row>
@@ -27608,9 +29768,15 @@
         <v>1.749480286228099</v>
       </c>
       <c r="W59" t="n">
+        <v>0.4906521739130436</v>
+      </c>
+      <c r="X59" t="n">
+        <v>1.007127150844211</v>
+      </c>
+      <c r="Y59" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X59" t="n">
+      <c r="Z59" t="n">
         <v>1.378383905522504</v>
       </c>
     </row>
@@ -27684,9 +29850,15 @@
         <v>2.322470989109863</v>
       </c>
       <c r="W60" t="n">
+        <v>0.4251666666666665</v>
+      </c>
+      <c r="X60" t="n">
+        <v>1.430647922414338</v>
+      </c>
+      <c r="Y60" t="n">
         <v>4.633333333333333</v>
       </c>
-      <c r="X60" t="n">
+      <c r="Z60" t="n">
         <v>1.627979111179489</v>
       </c>
     </row>
@@ -27760,9 +29932,15 @@
         <v>3.412016675006154</v>
       </c>
       <c r="W61" t="n">
+        <v>0.4264652014652011</v>
+      </c>
+      <c r="X61" t="n">
+        <v>2.077073107508811</v>
+      </c>
+      <c r="Y61" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X61" t="n">
+      <c r="Z61" t="n">
         <v>1.16971895877371</v>
       </c>
     </row>
@@ -27836,9 +30014,15 @@
         <v>3.682033770508832</v>
       </c>
       <c r="W62" t="n">
+        <v>0.3879257246376813</v>
+      </c>
+      <c r="X62" t="n">
+        <v>1.93886886274309</v>
+      </c>
+      <c r="Y62" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X62" t="n">
+      <c r="Z62" t="n">
         <v>1.289460685542643</v>
       </c>
     </row>
@@ -27912,9 +30096,15 @@
         <v>3.305258312142185</v>
       </c>
       <c r="W63" t="n">
+        <v>0.5048641304347825</v>
+      </c>
+      <c r="X63" t="n">
+        <v>2.304719006103026</v>
+      </c>
+      <c r="Y63" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X63" t="n">
+      <c r="Z63" t="n">
         <v>0.2216216966693823</v>
       </c>
     </row>
@@ -27988,9 +30178,15 @@
         <v>1.830435486201331</v>
       </c>
       <c r="W64" t="n">
+        <v>0.5521944444444442</v>
+      </c>
+      <c r="X64" t="n">
+        <v>1.927781765140204</v>
+      </c>
+      <c r="Y64" t="n">
         <v>4.3</v>
       </c>
-      <c r="X64" t="n">
+      <c r="Z64" t="n">
         <v>1.449840218383615</v>
       </c>
     </row>
@@ -28064,9 +30260,15 @@
         <v>1.963664628876818</v>
       </c>
       <c r="W65" t="n">
+        <v>0.586410256410256</v>
+      </c>
+      <c r="X65" t="n">
+        <v>2.323456692645795</v>
+      </c>
+      <c r="Y65" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="X65" t="n">
+      <c r="Z65" t="n">
         <v>-0.03765634714971744</v>
       </c>
     </row>
@@ -28140,9 +30342,15 @@
         <v>1.436163589579108</v>
       </c>
       <c r="W66" t="n">
+        <v>0.6052807971014489</v>
+      </c>
+      <c r="X66" t="n">
+        <v>2.774187356268646</v>
+      </c>
+      <c r="Y66" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X66" t="n">
+      <c r="Z66" t="n">
         <v>0.5350136180958796</v>
       </c>
     </row>
@@ -28216,9 +30424,15 @@
         <v>2.013257863135171</v>
       </c>
       <c r="W67" t="n">
+        <v>0.5689945652173918</v>
+      </c>
+      <c r="X67" t="n">
+        <v>1.864078036767872</v>
+      </c>
+      <c r="Y67" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="X67" t="n">
+      <c r="Z67" t="n">
         <v>1.554162740819812</v>
       </c>
     </row>
@@ -28292,9 +30506,15 @@
         <v>2.712030621919382</v>
       </c>
       <c r="W68" t="n">
+        <v>0.5647435897435895</v>
+      </c>
+      <c r="X68" t="n">
+        <v>1.393692804223548</v>
+      </c>
+      <c r="Y68" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="X68" t="n">
+      <c r="Z68" t="n">
         <v>2.643571474736089</v>
       </c>
     </row>
@@ -28368,9 +30588,15 @@
         <v>0.06686727096358838</v>
       </c>
       <c r="W69" t="n">
+        <v>0.4561721611721612</v>
+      </c>
+      <c r="X69" t="n">
+        <v>2.458237156983756</v>
+      </c>
+      <c r="Y69" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="X69" t="n">
+      <c r="Z69" t="n">
         <v>-0.2252730410481293</v>
       </c>
     </row>
@@ -28444,9 +30670,15 @@
         <v>-1.278187600304275</v>
       </c>
       <c r="W70" t="n">
+        <v>0.3718025362318842</v>
+      </c>
+      <c r="X70" t="n">
+        <v>2.444978016499623</v>
+      </c>
+      <c r="Y70" t="n">
         <v>4</v>
       </c>
-      <c r="X70" t="n">
+      <c r="Z70" t="n">
         <v>1.498950395177451</v>
       </c>
     </row>
@@ -28520,9 +30752,15 @@
         <v>0.9210443635445466</v>
       </c>
       <c r="W71" t="n">
+        <v>0.319610507246376</v>
+      </c>
+      <c r="X71" t="n">
+        <v>2.000984498798462</v>
+      </c>
+      <c r="Y71" t="n">
         <v>3.9</v>
       </c>
-      <c r="X71" t="n">
+      <c r="Z71" t="n">
         <v>0.1252227237608183</v>
       </c>
     </row>
@@ -28596,9 +30834,15 @@
         <v>1.860930973213774</v>
       </c>
       <c r="W72" t="n">
+        <v>0.3999166666666676</v>
+      </c>
+      <c r="X72" t="n">
+        <v>1.755115980828378</v>
+      </c>
+      <c r="Y72" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="X72" t="n">
+      <c r="Z72" t="n">
         <v>0.8302048569634537</v>
       </c>
     </row>
@@ -28672,9 +30916,15 @@
         <v>2.599799802488617</v>
       </c>
       <c r="W73" t="n">
+        <v>0.7041575091575094</v>
+      </c>
+      <c r="X73" t="n">
+        <v>3.226908585445039</v>
+      </c>
+      <c r="Y73" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="X73" t="n">
+      <c r="Z73" t="n">
         <v>-0.1828974110579861</v>
       </c>
     </row>
@@ -28748,9 +30998,15 @@
         <v>2.116033248047892</v>
       </c>
       <c r="W74" t="n">
+        <v>0.8896195652173914</v>
+      </c>
+      <c r="X74" t="n">
+        <v>2.956962076923184</v>
+      </c>
+      <c r="Y74" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X74" t="n">
+      <c r="Z74" t="n">
         <v>0.1532205057472692</v>
       </c>
     </row>
@@ -28824,9 +31080,15 @@
         <v>-0.2725654271577613</v>
       </c>
       <c r="W75" t="n">
+        <v>1.144057971014493</v>
+      </c>
+      <c r="X75" t="n">
+        <v>2.106507940897485</v>
+      </c>
+      <c r="Y75" t="n">
         <v>5.5</v>
       </c>
-      <c r="X75" t="n">
+      <c r="Z75" t="n">
         <v>0.3076405365812666</v>
       </c>
     </row>
@@ -28900,9 +31162,15 @@
         <v>2.262680858887241</v>
       </c>
       <c r="W76" t="n">
+        <v>1.280111111111111</v>
+      </c>
+      <c r="X76" t="n">
+        <v>2.556290508934249</v>
+      </c>
+      <c r="Y76" t="n">
         <v>5.7</v>
       </c>
-      <c r="X76" t="n">
+      <c r="Z76" t="n">
         <v>1.153584418529487</v>
       </c>
     </row>
@@ -28976,9 +31244,15 @@
         <v>2.793138468917747</v>
       </c>
       <c r="W77" t="n">
+        <v>1.260448717948718</v>
+      </c>
+      <c r="X77" t="n">
+        <v>3.193849598429004</v>
+      </c>
+      <c r="Y77" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X77" t="n">
+      <c r="Z77" t="n">
         <v>0.6721419935359457</v>
       </c>
     </row>
@@ -29052,9 +31326,15 @@
         <v>0.8744093869229062</v>
       </c>
       <c r="W78" t="n">
+        <v>1.163115942028986</v>
+      </c>
+      <c r="X78" t="n">
+        <v>3.382704536301659</v>
+      </c>
+      <c r="Y78" t="n">
         <v>5.733333333333333</v>
       </c>
-      <c r="X78" t="n">
+      <c r="Z78" t="n">
         <v>0.1220987828536571</v>
       </c>
     </row>
@@ -29128,9 +31408,15 @@
         <v>3.250894546241287</v>
       </c>
       <c r="W79" t="n">
+        <v>1.164773550724638</v>
+      </c>
+      <c r="X79" t="n">
+        <v>3.335926404035621</v>
+      </c>
+      <c r="Y79" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X79" t="n">
+      <c r="Z79" t="n">
         <v>-0.573988567694194</v>
       </c>
     </row>
@@ -29204,9 +31490,15 @@
         <v>3.241286192667455</v>
       </c>
       <c r="W80" t="n">
+        <v>1.16175</v>
+      </c>
+      <c r="X80" t="n">
+        <v>2.883834431706596</v>
+      </c>
+      <c r="Y80" t="n">
         <v>5.866666666666667</v>
       </c>
-      <c r="X80" t="n">
+      <c r="Z80" t="n">
         <v>0.6024531868168667</v>
       </c>
     </row>
@@ -29280,9 +31572,15 @@
         <v>2.544759744742195</v>
       </c>
       <c r="W81" t="n">
+        <v>1.08915750915751</v>
+      </c>
+      <c r="X81" t="n">
+        <v>4.092584021883129</v>
+      </c>
+      <c r="Y81" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X81" t="n">
+      <c r="Z81" t="n">
         <v>1.283160434102258</v>
       </c>
     </row>
@@ -29356,9 +31654,15 @@
         <v>5.657577446718212</v>
       </c>
       <c r="W82" t="n">
+        <v>1.165788043478261</v>
+      </c>
+      <c r="X82" t="n">
+        <v>3.700284309245446</v>
+      </c>
+      <c r="Y82" t="n">
         <v>6.133333333333333</v>
       </c>
-      <c r="X82" t="n">
+      <c r="Z82" t="n">
         <v>0.8035425434530054</v>
       </c>
     </row>
@@ -29432,9 +31736,15 @@
         <v>4.378309979712185</v>
       </c>
       <c r="W83" t="n">
+        <v>1.208315217391304</v>
+      </c>
+      <c r="X83" t="n">
+        <v>3.053349690820164</v>
+      </c>
+      <c r="Y83" t="n">
         <v>5.833333333333333</v>
       </c>
-      <c r="X83" t="n">
+      <c r="Z83" t="n">
         <v>0.3021226481335962</v>
       </c>
     </row>
@@ -29508,9 +31818,15 @@
         <v>3.312732572661011</v>
       </c>
       <c r="W84" t="n">
+        <v>1.154532967032967</v>
+      </c>
+      <c r="X84" t="n">
+        <v>2.442215663267359</v>
+      </c>
+      <c r="Y84" t="n">
         <v>5.7</v>
       </c>
-      <c r="X84" t="n">
+      <c r="Z84" t="n">
         <v>-0.9344074427186128</v>
       </c>
     </row>
@@ -29584,9 +31900,15 @@
         <v>5.971235738267619</v>
       </c>
       <c r="W85" t="n">
+        <v>1.178003663003663</v>
+      </c>
+      <c r="X85" t="n">
+        <v>3.778850455339486</v>
+      </c>
+      <c r="Y85" t="n">
         <v>5.599999999999999</v>
       </c>
-      <c r="X85" t="n">
+      <c r="Z85" t="n">
         <v>0.2964375750173121</v>
       </c>
     </row>
@@ -29660,9 +31982,15 @@
         <v>3.066779845347599</v>
       </c>
       <c r="W86" t="n">
+        <v>1.098976449275362</v>
+      </c>
+      <c r="X86" t="n">
+        <v>3.243024438646115</v>
+      </c>
+      <c r="Y86" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X86" t="n">
+      <c r="Z86" t="n">
         <v>0.764010936566182</v>
       </c>
     </row>
@@ -29736,9 +32064,15 @@
         <v>2.087877930737528</v>
       </c>
       <c r="W87" t="n">
+        <v>0.9550271739130435</v>
+      </c>
+      <c r="X87" t="n">
+        <v>3.328424582974502</v>
+      </c>
+      <c r="Y87" t="n">
         <v>5.433333333333334</v>
       </c>
-      <c r="X87" t="n">
+      <c r="Z87" t="n">
         <v>0.499586314917211</v>
       </c>
     </row>
@@ -29812,9 +32146,15 @@
         <v>2.887431223545009</v>
       </c>
       <c r="W88" t="n">
+        <v>0.8302499999999997</v>
+      </c>
+      <c r="X88" t="n">
+        <v>2.703413482439003</v>
+      </c>
+      <c r="Y88" t="n">
         <v>5.266666666666667</v>
       </c>
-      <c r="X88" t="n">
+      <c r="Z88" t="n">
         <v>-0.1188313760429649</v>
       </c>
     </row>
@@ -29888,9 +32228,15 @@
         <v>3.975997057717344</v>
       </c>
       <c r="W89" t="n">
+        <v>0.7203937728937729</v>
+      </c>
+      <c r="X89" t="n">
+        <v>3.43869398959077</v>
+      </c>
+      <c r="Y89" t="n">
         <v>5.066666666666666</v>
       </c>
-      <c r="X89" t="n">
+      <c r="Z89" t="n">
         <v>-0.27025499768329</v>
       </c>
     </row>
@@ -29964,9 +32310,15 @@
         <v>3.747602244410744</v>
       </c>
       <c r="W90" t="n">
+        <v>0.5941666666666664</v>
+      </c>
+      <c r="X90" t="n">
+        <v>3.391335399011536</v>
+      </c>
+      <c r="Y90" t="n">
         <v>5</v>
       </c>
-      <c r="X90" t="n">
+      <c r="Z90" t="n">
         <v>0.5690785392900894</v>
       </c>
     </row>
@@ -30040,9 +32392,15 @@
         <v>2.177967376498581</v>
       </c>
       <c r="W91" t="n">
+        <v>0.557934782608696</v>
+      </c>
+      <c r="X91" t="n">
+        <v>2.918458922592683</v>
+      </c>
+      <c r="Y91" t="n">
         <v>4.933333333333334</v>
       </c>
-      <c r="X91" t="n">
+      <c r="Z91" t="n">
         <v>-0.1818474865033131</v>
       </c>
     </row>
@@ -30116,9 +32474,15 @@
         <v>0.7938518495003513</v>
       </c>
       <c r="W92" t="n">
+        <v>0.4848055555555564</v>
+      </c>
+      <c r="X92" t="n">
+        <v>3.299154487576608</v>
+      </c>
+      <c r="Y92" t="n">
         <v>4.7</v>
       </c>
-      <c r="X92" t="n">
+      <c r="Z92" t="n">
         <v>0.8172831116543728</v>
       </c>
     </row>
@@ -30192,9 +32556,15 @@
         <v>-2.654136768086178</v>
       </c>
       <c r="W93" t="n">
+        <v>0.4356043956043951</v>
+      </c>
+      <c r="X93" t="n">
+        <v>3.270203388442527</v>
+      </c>
+      <c r="Y93" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="X93" t="n">
+      <c r="Z93" t="n">
         <v>-0.8579090165815045</v>
       </c>
     </row>
@@ -30268,9 +32638,15 @@
         <v>-5.489222528343467</v>
       </c>
       <c r="W94" t="n">
+        <v>0.3803351449275361</v>
+      </c>
+      <c r="X94" t="n">
+        <v>2.452670051098675</v>
+      </c>
+      <c r="Y94" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="X94" t="n">
+      <c r="Z94" t="n">
         <v>-0.221713758450432</v>
       </c>
     </row>
@@ -30344,9 +32720,15 @@
         <v>-4.21576043631306</v>
       </c>
       <c r="W95" t="n">
+        <v>0.3200996376811596</v>
+      </c>
+      <c r="X95" t="n">
+        <v>1.561745592277124</v>
+      </c>
+      <c r="Y95" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="X95" t="n">
+      <c r="Z95" t="n">
         <v>2.476441511320538</v>
       </c>
     </row>
@@ -30420,9 +32802,15 @@
         <v>-3.964020557361168</v>
       </c>
       <c r="W96" t="n">
+        <v>0.2855277777777772</v>
+      </c>
+      <c r="X96" t="n">
+        <v>1.985720555225968</v>
+      </c>
+      <c r="Y96" t="n">
         <v>4.5</v>
       </c>
-      <c r="X96" t="n">
+      <c r="Z96" t="n">
         <v>0.5129902326024814</v>
       </c>
     </row>
@@ -30496,9 +32884,15 @@
         <v>-3.357558599948794</v>
       </c>
       <c r="W97" t="n">
+        <v>0.2968956043956039</v>
+      </c>
+      <c r="X97" t="n">
+        <v>2.009313040563272</v>
+      </c>
+      <c r="Y97" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="X97" t="n">
+      <c r="Z97" t="n">
         <v>-0.3279870240885046</v>
       </c>
     </row>
@@ -30572,9 +32966,15 @@
         <v>-5.806134843854087</v>
       </c>
       <c r="W98" t="n">
+        <v>0.4147463768115944</v>
+      </c>
+      <c r="X98" t="n">
+        <v>1.466721578856795</v>
+      </c>
+      <c r="Y98" t="n">
         <v>4.7</v>
       </c>
-      <c r="X98" t="n">
+      <c r="Z98" t="n">
         <v>0.5641139610283791</v>
       </c>
     </row>
@@ -30648,9 +33048,15 @@
         <v>-7.340925005119351</v>
       </c>
       <c r="W99" t="n">
+        <v>0.480253623188406</v>
+      </c>
+      <c r="X99" t="n">
+        <v>1.142426764255193</v>
+      </c>
+      <c r="Y99" t="n">
         <v>4.833333333333333</v>
       </c>
-      <c r="X99" t="n">
+      <c r="Z99" t="n">
         <v>0.5205371725166118</v>
       </c>
     </row>
@@ -30722,9 +33128,13 @@
         <v>-8.313549364398067</v>
       </c>
       <c r="W100" t="n">
+        <v>0.7096428571428575</v>
+      </c>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="n">
         <v>4.933333333333333</v>
       </c>
-      <c r="X100" t="n">
+      <c r="Z100" t="n">
         <v>0.4285407643845965</v>
       </c>
     </row>
@@ -30764,9 +33174,7 @@
       <c r="O101" t="n">
         <v>936.6953266634537</v>
       </c>
-      <c r="P101" t="n">
-        <v>-45.50767591222578</v>
-      </c>
+      <c r="P101" t="inlineStr"/>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr"/>
@@ -30779,6 +33187,8 @@
       </c>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/data/vintage_data/data_20080508.xlsx
+++ b/data/vintage_data/data_20080508.xlsx
@@ -16743,7 +16743,9 @@
       </c>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
-      <c r="Y101" t="inlineStr"/>
+      <c r="Y101" t="n">
+        <v>5.1516</v>
+      </c>
       <c r="Z101" t="inlineStr"/>
     </row>
   </sheetData>
@@ -33187,7 +33189,9 @@
       </c>
       <c r="W101" t="inlineStr"/>
       <c r="X101" t="inlineStr"/>
-      <c r="Y101" t="inlineStr"/>
+      <c r="Y101" t="n">
+        <v>5.1516</v>
+      </c>
       <c r="Z101" t="inlineStr"/>
     </row>
   </sheetData>
